--- a/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D41F6-33EB-45BA-B751-BC51F7BB0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="443">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1361,12 +1360,15 @@
   </si>
   <si>
     <t>12/22,29/2023</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2092,7 +2094,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2137,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2201,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2261,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2327,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2390,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2488,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2547,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2612,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2655,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2730,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2916,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2982,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3040,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3106,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3162,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3237,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3280,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3346,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3402,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3481,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3496,26 +3498,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K730" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K730"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3822,7 +3824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3832,7 +3834,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3840,34 +3842,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K730"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A652" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A652" activePane="bottomLeft"/>
       <selection activeCell="K10" sqref="K10"/>
-      <selection pane="bottomLeft" activeCell="B663" sqref="B663"/>
+      <selection pane="bottomLeft" activeCell="F665" sqref="F665"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3890,7 +3892,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3930,7 +3932,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3938,7 +3940,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3951,7 +3953,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3968,7 +3970,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
         <v>23</v>
@@ -4022,12 +4024,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>158.875</v>
+        <v>156.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
         <v>70</v>
@@ -4049,7 +4051,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="54">
         <v>35430</v>
@@ -4064,7 +4066,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="46" t="s">
         <v>71</v>
@@ -4084,7 +4086,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>69</v>
       </c>
@@ -4099,7 +4101,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>35431</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>52</v>
@@ -4142,7 +4144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>53</v>
@@ -4161,7 +4163,7 @@
         <v>35458</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>35462</v>
       </c>
@@ -4181,7 +4183,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>35490</v>
       </c>
@@ -4201,7 +4203,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>35521</v>
       </c>
@@ -4221,7 +4223,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>35551</v>
       </c>
@@ -4245,7 +4247,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>35582</v>
       </c>
@@ -4265,7 +4267,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>35612</v>
       </c>
@@ -4285,7 +4287,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>35643</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>35674</v>
       </c>
@@ -4331,7 +4333,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>35704</v>
       </c>
@@ -4351,7 +4353,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>35735</v>
       </c>
@@ -4371,7 +4373,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>35765</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>72</v>
       </c>
@@ -4417,7 +4419,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>35796</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>35802</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>99</v>
@@ -4463,7 +4465,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>35827</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>60</v>
@@ -4511,7 +4513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>35855</v>
       </c>
@@ -4535,7 +4537,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4557,7 +4559,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>35886</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>35891</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>35916</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>100</v>
@@ -4631,7 +4633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4649,7 +4651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>101</v>
@@ -4669,7 +4671,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>35947</v>
       </c>
@@ -4695,7 +4697,7 @@
         <v>35964</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20" t="s">
         <v>99</v>
@@ -4715,7 +4717,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>35977</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>36004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>102</v>
@@ -4761,7 +4763,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>36008</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>36033</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>103</v>
@@ -4804,7 +4806,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>36039</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>36045</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -4852,7 +4854,7 @@
         <v>36066</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>109</v>
@@ -4872,7 +4874,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>36069</v>
       </c>
@@ -4892,7 +4894,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>36100</v>
       </c>
@@ -4916,7 +4918,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>36130</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20" t="s">
         <v>111</v>
@@ -4962,7 +4964,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>112</v>
       </c>
@@ -4984,7 +4986,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>36161</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -5030,7 +5032,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>36192</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20" t="s">
         <v>113</v>
@@ -5076,7 +5078,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>36220</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -5122,7 +5124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5144,7 +5146,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>114</v>
@@ -5164,7 +5166,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>36251</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>61</v>
@@ -5212,7 +5214,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20" t="s">
         <v>429</v>
@@ -5232,7 +5234,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="46"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>36281</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -5275,7 +5277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>53</v>
@@ -5294,7 +5296,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>110</v>
@@ -5311,7 +5313,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>36312</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>36317</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -5357,7 +5359,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>36342</v>
       </c>
@@ -5383,7 +5385,7 @@
         <v>36346</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>116</v>
@@ -5403,7 +5405,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>36373</v>
       </c>
@@ -5427,7 +5429,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>36404</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>36419</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20" t="s">
         <v>118</v>
@@ -5475,7 +5477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -5492,7 +5494,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>119</v>
@@ -5514,7 +5516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5534,7 +5536,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>36434</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>61</v>
@@ -5582,7 +5584,7 @@
         <v>36459</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>121</v>
@@ -5602,7 +5604,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>36465</v>
       </c>
@@ -5626,7 +5628,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>36495</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20" t="s">
         <v>131</v>
@@ -5669,7 +5671,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>73</v>
       </c>
@@ -5691,7 +5693,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>36526</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>132</v>
@@ -5732,7 +5734,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>36557</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>36570</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>133</v>
@@ -5778,7 +5780,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>36586</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>60</v>
@@ -5824,7 +5826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20" t="s">
         <v>134</v>
@@ -5844,7 +5846,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>36617</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>135</v>
@@ -5890,7 +5892,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>36647</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>61</v>
@@ -5938,7 +5940,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>136</v>
@@ -5958,7 +5960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>36678</v>
       </c>
@@ -5978,7 +5980,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>36708</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>36739</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>53</v>
@@ -6050,7 +6052,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>144</v>
@@ -6070,7 +6072,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>36770</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>36800</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20" t="s">
         <v>145</v>
@@ -6144,7 +6146,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20" t="s">
         <v>61</v>
@@ -6166,7 +6168,7 @@
         <v>36839</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>36831</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>36861</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>36874</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -6238,7 +6240,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -6260,7 +6262,7 @@
         <v>36888</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20" t="s">
         <v>147</v>
@@ -6280,7 +6282,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
         <v>74</v>
       </c>
@@ -6302,7 +6304,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>36892</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20" t="s">
         <v>53</v>
@@ -6345,7 +6347,7 @@
         <v>36921</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>151</v>
@@ -6362,7 +6364,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>36923</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>36931</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -6405,7 +6407,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>36951</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20" t="s">
         <v>158</v>
@@ -6448,7 +6450,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="46"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>36982</v>
       </c>
@@ -6472,7 +6474,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>37012</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20" t="s">
         <v>56</v>
@@ -6520,7 +6522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>60</v>
@@ -6542,7 +6544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>37043</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="20" t="s">
         <v>154</v>
@@ -6588,7 +6590,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>37073</v>
       </c>
@@ -6612,7 +6614,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>37104</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>37123</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>113</v>
@@ -6658,7 +6660,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>37135</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>155</v>
@@ -6704,7 +6706,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>37165</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>37179</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38"/>
       <c r="B132" s="20" t="s">
         <v>52</v>
@@ -6750,7 +6752,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38"/>
       <c r="B133" s="20" t="s">
         <v>156</v>
@@ -6770,7 +6772,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>37196</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>61</v>
@@ -6818,7 +6820,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38"/>
       <c r="B136" s="20" t="s">
         <v>157</v>
@@ -6838,7 +6840,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>37226</v>
       </c>
@@ -6858,7 +6860,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
         <v>75</v>
       </c>
@@ -6880,7 +6882,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>37257</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>37270</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38"/>
       <c r="B140" s="20" t="s">
         <v>52</v>
@@ -6926,7 +6928,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38"/>
       <c r="B141" s="20" t="s">
         <v>165</v>
@@ -6946,7 +6948,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>37288</v>
       </c>
@@ -6972,7 +6974,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38"/>
       <c r="B143" s="20" t="s">
         <v>53</v>
@@ -6994,7 +6996,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>56</v>
@@ -7016,7 +7018,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7038,7 +7040,7 @@
         <v>37313</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>61</v>
@@ -7060,7 +7062,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
       <c r="B147" s="20" t="s">
         <v>168</v>
@@ -7077,7 +7079,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>37316</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>37334</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>53</v>
@@ -7122,7 +7124,7 @@
         <v>37336</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38"/>
       <c r="B150" s="20" t="s">
         <v>52</v>
@@ -7142,7 +7144,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>169</v>
@@ -7162,7 +7164,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>37347</v>
       </c>
@@ -7186,7 +7188,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>37377</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>53</v>
@@ -7234,7 +7236,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="20" t="s">
         <v>170</v>
@@ -7254,7 +7256,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>37408</v>
       </c>
@@ -7280,7 +7282,7 @@
         <v>37413</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>169</v>
@@ -7300,7 +7302,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="46"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>37438</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>37441</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>174</v>
@@ -7346,7 +7348,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>37469</v>
       </c>
@@ -7370,7 +7372,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>37500</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -7416,7 +7418,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>37530</v>
       </c>
@@ -7440,7 +7442,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>37561</v>
       </c>
@@ -7464,7 +7466,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>37591</v>
       </c>
@@ -7488,7 +7490,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
         <v>76</v>
       </c>
@@ -7510,7 +7512,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>37622</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -7556,7 +7558,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>52</v>
@@ -7576,7 +7578,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>37653</v>
       </c>
@@ -7600,7 +7602,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>52</v>
@@ -7620,7 +7622,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>37681</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>180</v>
@@ -7663,7 +7665,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>37712</v>
       </c>
@@ -7687,7 +7689,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>37742</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -7735,7 +7737,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>37773</v>
       </c>
@@ -7759,7 +7761,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7781,7 +7783,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>37803</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -7829,7 +7831,7 @@
         <v>37825</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>187</v>
@@ -7849,7 +7851,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>37834</v>
       </c>
@@ -7869,7 +7871,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>37865</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>188</v>
@@ -7915,7 +7917,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>37895</v>
       </c>
@@ -7939,7 +7941,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>37926</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>37935</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38"/>
       <c r="B187" s="20" t="s">
         <v>53</v>
@@ -7987,7 +7989,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="20" t="s">
         <v>190</v>
@@ -8005,7 +8007,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>37956</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>37971</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>191</v>
@@ -8051,7 +8053,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
         <v>77</v>
       </c>
@@ -8073,7 +8075,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>37987</v>
       </c>
@@ -8099,7 +8101,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8121,7 +8123,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38"/>
       <c r="B194" s="20" t="s">
         <v>192</v>
@@ -8141,7 +8143,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>52</v>
@@ -8161,7 +8163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>38018</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="20" t="s">
         <v>193</v>
@@ -8207,7 +8209,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8227,7 +8229,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>38047</v>
       </c>
@@ -8251,7 +8253,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>38078</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>115</v>
@@ -8297,7 +8299,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>38108</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38"/>
       <c r="B203" s="20" t="s">
         <v>60</v>
@@ -8345,7 +8347,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>60</v>
@@ -8367,7 +8369,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>198</v>
@@ -8387,7 +8389,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <v>38139</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>56</v>
@@ -8435,7 +8437,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>203</v>
@@ -8455,7 +8457,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>38169</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>204</v>
@@ -8503,7 +8505,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="20" t="s">
         <v>205</v>
@@ -8523,7 +8525,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>38200</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>38201</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>206</v>
@@ -8569,7 +8571,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>38231</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>38230</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>207</v>
@@ -8615,7 +8617,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8632,7 +8634,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>38261</v>
       </c>
@@ -8656,7 +8658,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>38292</v>
       </c>
@@ -8680,7 +8682,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>38322</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="20" t="s">
         <v>213</v>
@@ -8723,7 +8725,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
         <v>78</v>
       </c>
@@ -8745,7 +8747,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>38353</v>
       </c>
@@ -8771,7 +8773,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38"/>
       <c r="B223" s="20" t="s">
         <v>53</v>
@@ -8790,7 +8792,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>52</v>
@@ -8810,7 +8812,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>215</v>
@@ -8827,7 +8829,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38">
         <v>38384</v>
       </c>
@@ -8851,7 +8853,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="20" t="s">
         <v>52</v>
@@ -8871,7 +8873,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <v>38412</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>52</v>
@@ -8914,7 +8916,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>217</v>
@@ -8931,7 +8933,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>38443</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>57</v>
@@ -8976,7 +8978,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>203</v>
@@ -8993,7 +8995,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>38473</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
         <v>218</v>
@@ -9036,7 +9038,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>38504</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>219</v>
@@ -9082,7 +9084,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>38534</v>
       </c>
@@ -9108,7 +9110,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>224</v>
@@ -9128,7 +9130,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="46"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <v>38565</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9176,7 +9178,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>225</v>
@@ -9196,7 +9198,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>38596</v>
       </c>
@@ -9220,7 +9222,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>38626</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>101</v>
@@ -9266,7 +9268,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>38657</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38"/>
       <c r="B247" s="20" t="s">
         <v>228</v>
@@ -9312,7 +9314,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>38687</v>
       </c>
@@ -9338,7 +9340,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>229</v>
@@ -9358,7 +9360,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="45" t="s">
         <v>79</v>
       </c>
@@ -9380,7 +9382,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>38718</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>38749</v>
       </c>
@@ -9430,7 +9432,7 @@
         <v>38756</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>53</v>
@@ -9449,7 +9451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>52</v>
@@ -9466,7 +9468,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38"/>
       <c r="B255" s="20" t="s">
         <v>136</v>
@@ -9483,7 +9485,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>38777</v>
       </c>
@@ -9503,7 +9505,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>38808</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>100</v>
@@ -9548,7 +9550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38"/>
       <c r="B259" s="20" t="s">
         <v>61</v>
@@ -9567,7 +9569,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>38838</v>
       </c>
@@ -9591,7 +9593,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>38869</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38"/>
       <c r="B262" s="20" t="s">
         <v>52</v>
@@ -9635,7 +9637,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>237</v>
@@ -9655,7 +9657,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>38899</v>
       </c>
@@ -9679,7 +9681,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38"/>
       <c r="B265" s="20" t="s">
         <v>238</v>
@@ -9699,7 +9701,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>38930</v>
       </c>
@@ -9723,7 +9725,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>38961</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>241</v>
@@ -9769,7 +9771,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>38991</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>240</v>
@@ -9815,7 +9817,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>39022</v>
       </c>
@@ -9839,7 +9841,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>39052</v>
       </c>
@@ -9865,7 +9867,7 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>243</v>
@@ -9885,7 +9887,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="45" t="s">
         <v>80</v>
       </c>
@@ -9907,7 +9909,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>39083</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>52</v>
@@ -9951,7 +9953,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38"/>
       <c r="B277" s="20" t="s">
         <v>250</v>
@@ -9971,7 +9973,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>39114</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>39120</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>57</v>
@@ -10019,7 +10021,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38"/>
       <c r="B280" s="20" t="s">
         <v>52</v>
@@ -10039,7 +10041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>251</v>
@@ -10059,7 +10061,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>39142</v>
       </c>
@@ -10083,7 +10085,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>39173</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>67</v>
@@ -10131,7 +10133,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>170</v>
@@ -10151,7 +10153,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38">
         <v>39203</v>
       </c>
@@ -10175,7 +10177,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>39234</v>
       </c>
@@ -10199,7 +10201,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>39264</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10247,7 +10249,7 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38"/>
       <c r="B290" s="20" t="s">
         <v>260</v>
@@ -10267,7 +10269,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>39295</v>
       </c>
@@ -10291,7 +10293,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>39326</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38"/>
       <c r="B293" s="20" t="s">
         <v>262</v>
@@ -10337,7 +10339,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <v>39356</v>
       </c>
@@ -10361,7 +10363,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>39387</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>53</v>
@@ -10406,7 +10408,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38"/>
       <c r="B297" s="20" t="s">
         <v>276</v>
@@ -10423,7 +10425,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>39417</v>
       </c>
@@ -10447,7 +10449,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="45" t="s">
         <v>81</v>
       </c>
@@ -10469,7 +10471,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>39448</v>
       </c>
@@ -10493,7 +10495,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>52</v>
@@ -10513,7 +10515,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>39479</v>
       </c>
@@ -10537,7 +10539,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>39508</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38"/>
       <c r="B304" s="20" t="s">
         <v>65</v>
@@ -10583,7 +10585,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>268</v>
@@ -10603,7 +10605,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>39539</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>39552</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>52</v>
@@ -10649,7 +10651,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>267</v>
@@ -10669,7 +10671,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>39569</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>53</v>
@@ -10717,7 +10719,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38"/>
       <c r="B311" s="20" t="s">
         <v>269</v>
@@ -10737,7 +10739,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>39600</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>270</v>
@@ -10783,7 +10785,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>39630</v>
       </c>
@@ -10807,7 +10809,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>39661</v>
       </c>
@@ -10833,7 +10835,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38"/>
       <c r="B316" s="20" t="s">
         <v>278</v>
@@ -10853,7 +10855,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>39692</v>
       </c>
@@ -10879,7 +10881,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>145</v>
@@ -10901,7 +10903,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>279</v>
@@ -10921,7 +10923,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>39722</v>
       </c>
@@ -10945,7 +10947,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>39753</v>
       </c>
@@ -10971,7 +10973,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>282</v>
@@ -10991,7 +10993,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>39783</v>
       </c>
@@ -11015,7 +11017,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="45" t="s">
         <v>82</v>
       </c>
@@ -11037,7 +11039,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>39814</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>52</v>
@@ -11081,7 +11083,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>65</v>
@@ -11103,7 +11105,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38"/>
       <c r="B328" s="20" t="s">
         <v>285</v>
@@ -11123,7 +11125,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>39845</v>
       </c>
@@ -11147,7 +11149,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>39873</v>
       </c>
@@ -11171,7 +11173,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38">
         <v>39904</v>
       </c>
@@ -11195,7 +11197,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>39934</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>289</v>
@@ -11241,7 +11243,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38"/>
       <c r="B334" s="20" t="s">
         <v>60</v>
@@ -11263,7 +11265,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>39965</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11311,7 +11313,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>264</v>
@@ -11331,7 +11333,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>39995</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>290</v>
@@ -11375,7 +11377,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
         <v>40026</v>
       </c>
@@ -11399,7 +11401,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>40057</v>
       </c>
@@ -11425,7 +11427,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>292</v>
@@ -11445,7 +11447,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>40087</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>65</v>
@@ -11493,7 +11495,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>215</v>
@@ -11513,7 +11515,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>40118</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>293</v>
@@ -11559,7 +11561,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>40148</v>
       </c>
@@ -11583,7 +11585,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="45" t="s">
         <v>83</v>
       </c>
@@ -11605,7 +11607,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>40179</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38"/>
       <c r="B351" s="20" t="s">
         <v>65</v>
@@ -11653,7 +11655,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>52</v>
@@ -11673,7 +11675,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>296</v>
@@ -11693,7 +11695,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>40210</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>297</v>
@@ -11737,7 +11739,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
         <v>40238</v>
       </c>
@@ -11761,7 +11763,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>40269</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38"/>
       <c r="B358" s="20" t="s">
         <v>305</v>
@@ -11807,7 +11809,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>40299</v>
       </c>
@@ -11833,7 +11835,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38"/>
       <c r="B360" s="20" t="s">
         <v>306</v>
@@ -11853,7 +11855,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>40330</v>
       </c>
@@ -11877,7 +11879,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
         <v>40360</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>40392</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38"/>
       <c r="B363" s="20" t="s">
         <v>308</v>
@@ -11923,7 +11925,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>40391</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -11971,7 +11973,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38"/>
       <c r="B366" s="20" t="s">
         <v>309</v>
@@ -11991,7 +11993,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>40422</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>53</v>
@@ -12039,7 +12041,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38"/>
       <c r="B369" s="20" t="s">
         <v>291</v>
@@ -12059,7 +12061,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
         <v>40452</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>40469</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38"/>
       <c r="B371" s="20" t="s">
         <v>310</v>
@@ -12105,7 +12107,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38">
         <v>40483</v>
       </c>
@@ -12131,7 +12133,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12151,7 +12153,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38"/>
       <c r="B374" s="20" t="s">
         <v>67</v>
@@ -12173,7 +12175,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>311</v>
@@ -12193,7 +12195,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38">
         <v>40513</v>
       </c>
@@ -12217,7 +12219,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="45" t="s">
         <v>84</v>
       </c>
@@ -12239,7 +12241,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38">
         <v>40544</v>
       </c>
@@ -12263,7 +12265,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>53</v>
@@ -12285,7 +12287,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38"/>
       <c r="B380" s="20" t="s">
         <v>65</v>
@@ -12307,7 +12309,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>179</v>
@@ -12327,7 +12329,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <v>40575</v>
       </c>
@@ -12351,7 +12353,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38">
         <v>40603</v>
       </c>
@@ -12375,7 +12377,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <v>40634</v>
       </c>
@@ -12401,7 +12403,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>318</v>
@@ -12421,7 +12423,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38">
         <v>40664</v>
       </c>
@@ -12447,7 +12449,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="38"/>
       <c r="B387" s="20" t="s">
         <v>319</v>
@@ -12467,7 +12469,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <v>40695</v>
       </c>
@@ -12493,7 +12495,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>67</v>
@@ -12515,7 +12517,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38"/>
       <c r="B390" s="20" t="s">
         <v>207</v>
@@ -12535,7 +12537,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <v>40725</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38">
         <v>40756</v>
       </c>
@@ -12587,7 +12589,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38"/>
       <c r="B393" s="20" t="s">
         <v>321</v>
@@ -12607,7 +12609,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38">
         <v>40787</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>40799</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38">
         <v>40817</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38"/>
       <c r="B396" s="20" t="s">
         <v>326</v>
@@ -12679,7 +12681,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38">
         <v>40848</v>
       </c>
@@ -12705,7 +12707,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>327</v>
@@ -12725,7 +12727,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38">
         <v>40878</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38"/>
       <c r="B400" s="20" t="s">
         <v>100</v>
@@ -12771,7 +12773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>329</v>
@@ -12791,7 +12793,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="45" t="s">
         <v>85</v>
       </c>
@@ -12813,7 +12815,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38">
         <v>40909</v>
       </c>
@@ -12837,7 +12839,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38"/>
       <c r="B404" s="20" t="s">
         <v>332</v>
@@ -12859,7 +12861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38">
         <v>40940</v>
       </c>
@@ -12883,7 +12885,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <v>40969</v>
       </c>
@@ -12907,7 +12909,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>52</v>
@@ -12927,7 +12929,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38"/>
       <c r="B408" s="20" t="s">
         <v>334</v>
@@ -12947,7 +12949,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38">
         <v>41000</v>
       </c>
@@ -12973,7 +12975,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38"/>
       <c r="B410" s="20" t="s">
         <v>335</v>
@@ -12993,7 +12995,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38">
         <v>41030</v>
       </c>
@@ -13019,7 +13021,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="38"/>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -13041,7 +13043,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38"/>
       <c r="B413" s="20" t="s">
         <v>336</v>
@@ -13061,7 +13063,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38">
         <v>41061</v>
       </c>
@@ -13085,7 +13087,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38">
         <v>41091</v>
       </c>
@@ -13111,7 +13113,7 @@
         <v>41109</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>343</v>
@@ -13128,7 +13130,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38">
         <v>41122</v>
       </c>
@@ -13152,7 +13154,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38">
         <v>41153</v>
       </c>
@@ -13176,7 +13178,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38">
         <v>41183</v>
       </c>
@@ -13200,7 +13202,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38">
         <v>41214</v>
       </c>
@@ -13224,7 +13226,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>52</v>
@@ -13244,7 +13246,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13264,7 +13266,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <v>41244</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>41270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38"/>
       <c r="B424" s="20" t="s">
         <v>65</v>
@@ -13310,7 +13312,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>170</v>
@@ -13330,7 +13332,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="45" t="s">
         <v>86</v>
       </c>
@@ -13352,7 +13354,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <v>41275</v>
       </c>
@@ -13376,7 +13378,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -13396,7 +13398,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38">
         <v>41306</v>
       </c>
@@ -13422,7 +13424,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>60</v>
@@ -13444,7 +13446,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38"/>
       <c r="B431" s="20" t="s">
         <v>65</v>
@@ -13464,7 +13466,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>347</v>
@@ -13484,7 +13486,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38">
         <v>41334</v>
       </c>
@@ -13508,7 +13510,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38"/>
       <c r="B434" s="20" t="s">
         <v>348</v>
@@ -13528,7 +13530,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38">
         <v>41365</v>
       </c>
@@ -13554,7 +13556,7 @@
         <v>41379</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38"/>
       <c r="B436" s="20" t="s">
         <v>65</v>
@@ -13576,7 +13578,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38"/>
       <c r="B437" s="20" t="s">
         <v>60</v>
@@ -13598,7 +13600,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>354</v>
@@ -13618,7 +13620,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38">
         <v>41395</v>
       </c>
@@ -13642,7 +13644,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38">
         <v>41426</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="38"/>
       <c r="B441" s="20" t="s">
         <v>60</v>
@@ -13690,7 +13692,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -13712,7 +13714,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
       <c r="B443" s="20" t="s">
         <v>270</v>
@@ -13732,7 +13734,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38">
         <v>41456</v>
       </c>
@@ -13758,7 +13760,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>356</v>
@@ -13778,7 +13780,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38">
         <v>41487</v>
       </c>
@@ -13804,7 +13806,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38"/>
       <c r="B447" s="20" t="s">
         <v>357</v>
@@ -13824,7 +13826,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38">
         <v>41518</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38"/>
       <c r="B449" s="20" t="s">
         <v>53</v>
@@ -13872,7 +13874,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38"/>
       <c r="B450" s="20" t="s">
         <v>60</v>
@@ -13894,7 +13896,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38"/>
       <c r="B451" s="20" t="s">
         <v>358</v>
@@ -13914,7 +13916,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38">
         <v>41548</v>
       </c>
@@ -13938,7 +13940,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38">
         <v>41579</v>
       </c>
@@ -13962,7 +13964,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -13982,7 +13984,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38">
         <v>41609</v>
       </c>
@@ -14006,7 +14008,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="45" t="s">
         <v>87</v>
       </c>
@@ -14028,7 +14030,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38">
         <v>41640</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14074,7 +14076,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38"/>
       <c r="B459" s="20" t="s">
         <v>368</v>
@@ -14094,7 +14096,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38">
         <v>41671</v>
       </c>
@@ -14120,7 +14122,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14142,7 +14144,7 @@
         <v>41696</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>190</v>
@@ -14162,7 +14164,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="38">
         <v>41699</v>
       </c>
@@ -14186,7 +14188,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38">
         <v>41730</v>
       </c>
@@ -14210,7 +14212,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <v>41760</v>
       </c>
@@ -14236,7 +14238,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38"/>
       <c r="B466" s="20" t="s">
         <v>53</v>
@@ -14258,7 +14260,7 @@
         <v>41775</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>372</v>
@@ -14278,7 +14280,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38">
         <v>41791</v>
       </c>
@@ -14302,7 +14304,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>53</v>
@@ -14324,7 +14326,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>65</v>
@@ -14344,7 +14346,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
       <c r="B471" s="20" t="s">
         <v>373</v>
@@ -14364,7 +14366,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38">
         <v>41821</v>
       </c>
@@ -14390,7 +14392,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
       <c r="B473" s="20" t="s">
         <v>53</v>
@@ -14412,7 +14414,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38"/>
       <c r="B474" s="20" t="s">
         <v>52</v>
@@ -14432,7 +14434,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38"/>
       <c r="B475" s="20" t="s">
         <v>374</v>
@@ -14452,7 +14454,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38">
         <v>41852</v>
       </c>
@@ -14478,7 +14480,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38"/>
       <c r="B477" s="20" t="s">
         <v>375</v>
@@ -14498,7 +14500,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="38">
         <v>41883</v>
       </c>
@@ -14524,7 +14526,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>53</v>
@@ -14546,7 +14548,7 @@
         <v>41905</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38"/>
       <c r="B480" s="20" t="s">
         <v>115</v>
@@ -14566,7 +14568,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38">
         <v>41913</v>
       </c>
@@ -14592,7 +14594,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38"/>
       <c r="B482" s="20" t="s">
         <v>380</v>
@@ -14612,7 +14614,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38">
         <v>41944</v>
       </c>
@@ -14636,7 +14638,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="38">
         <v>41974</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38"/>
       <c r="B485" s="20" t="s">
         <v>382</v>
@@ -14682,7 +14684,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="45" t="s">
         <v>88</v>
       </c>
@@ -14704,7 +14706,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="38">
         <v>42005</v>
       </c>
@@ -14728,7 +14730,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="38"/>
       <c r="B488" s="20" t="s">
         <v>53</v>
@@ -14750,7 +14752,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="38"/>
       <c r="B489" s="20" t="s">
         <v>65</v>
@@ -14772,7 +14774,7 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="38"/>
       <c r="B490" s="20" t="s">
         <v>384</v>
@@ -14792,7 +14794,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="38">
         <v>42036</v>
       </c>
@@ -14816,7 +14818,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="38">
         <v>42064</v>
       </c>
@@ -14840,7 +14842,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="38"/>
       <c r="B493" s="20" t="s">
         <v>53</v>
@@ -14862,7 +14864,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="38"/>
       <c r="B494" s="20" t="s">
         <v>279</v>
@@ -14882,7 +14884,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="38">
         <v>42095</v>
       </c>
@@ -14908,7 +14910,7 @@
         <v>42115</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>189</v>
@@ -14928,7 +14930,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="38">
         <v>42125</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="38"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -14974,7 +14976,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="38"/>
       <c r="B499" s="20" t="s">
         <v>389</v>
@@ -14994,7 +14996,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="38">
         <v>42156</v>
       </c>
@@ -15020,7 +15022,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="38"/>
       <c r="B501" s="20" t="s">
         <v>390</v>
@@ -15040,7 +15042,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="38">
         <v>42186</v>
       </c>
@@ -15066,7 +15068,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>391</v>
@@ -15086,7 +15088,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <v>42217</v>
       </c>
@@ -15110,7 +15112,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="38">
         <v>42248</v>
       </c>
@@ -15134,7 +15136,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="38">
         <v>42278</v>
       </c>
@@ -15160,7 +15162,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="38"/>
       <c r="B507" s="20" t="s">
         <v>394</v>
@@ -15180,7 +15182,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="38">
         <v>42309</v>
       </c>
@@ -15206,7 +15208,7 @@
         <v>42320</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="38"/>
       <c r="B509" s="20" t="s">
         <v>53</v>
@@ -15228,7 +15230,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="38"/>
       <c r="B510" s="20" t="s">
         <v>395</v>
@@ -15248,7 +15250,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="38">
         <v>42339</v>
       </c>
@@ -15274,7 +15276,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="38"/>
       <c r="B512" s="20" t="s">
         <v>67</v>
@@ -15294,7 +15296,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>326</v>
@@ -15311,7 +15313,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="45" t="s">
         <v>89</v>
       </c>
@@ -15333,7 +15335,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="38">
         <v>42370</v>
       </c>
@@ -15357,7 +15359,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="38">
         <v>42401</v>
       </c>
@@ -15381,7 +15383,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>399</v>
@@ -15398,7 +15400,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="38">
         <v>42430</v>
       </c>
@@ -15424,7 +15426,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>400</v>
@@ -15444,7 +15446,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="38">
         <v>42461</v>
       </c>
@@ -15470,7 +15472,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="38"/>
       <c r="B521" s="20" t="s">
         <v>52</v>
@@ -15490,7 +15492,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>401</v>
@@ -15510,7 +15512,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="38">
         <v>42491</v>
       </c>
@@ -15536,7 +15538,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="38"/>
       <c r="B524" s="20" t="s">
         <v>390</v>
@@ -15556,7 +15558,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="38">
         <v>42522</v>
       </c>
@@ -15582,7 +15584,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="38"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15604,7 +15606,7 @@
         <v>42558</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>402</v>
@@ -15624,7 +15626,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="38">
         <v>42552</v>
       </c>
@@ -15648,7 +15650,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="38">
         <v>42583</v>
       </c>
@@ -15672,7 +15674,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="38">
         <v>42614</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="38"/>
       <c r="B531" s="20" t="s">
         <v>191</v>
@@ -15718,7 +15720,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="38">
         <v>42644</v>
       </c>
@@ -15744,7 +15746,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="38"/>
       <c r="B533" s="20" t="s">
         <v>404</v>
@@ -15764,7 +15766,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="38">
         <v>42675</v>
       </c>
@@ -15788,7 +15790,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="38">
         <v>42705</v>
       </c>
@@ -15814,7 +15816,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="45" t="s">
         <v>90</v>
       </c>
@@ -15836,7 +15838,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="38">
         <v>42736</v>
       </c>
@@ -15860,7 +15862,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="38"/>
       <c r="B538" s="20" t="s">
         <v>61</v>
@@ -15882,7 +15884,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="38">
         <v>42767</v>
       </c>
@@ -15908,7 +15910,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="38">
         <v>42795</v>
       </c>
@@ -15934,7 +15936,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="38"/>
       <c r="B541" s="20" t="s">
         <v>53</v>
@@ -15956,7 +15958,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="38">
         <v>42826</v>
       </c>
@@ -15976,7 +15978,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="38">
         <v>42856</v>
       </c>
@@ -16002,7 +16004,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="38"/>
       <c r="B544" s="20" t="s">
         <v>53</v>
@@ -16024,7 +16026,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>52</v>
@@ -16044,7 +16046,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="38">
         <v>42887</v>
       </c>
@@ -16064,7 +16066,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="38">
         <v>42917</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="38">
         <v>42948</v>
       </c>
@@ -16110,7 +16112,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="38">
         <v>42979</v>
       </c>
@@ -16130,7 +16132,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="38">
         <v>43009</v>
       </c>
@@ -16150,7 +16152,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="38">
         <v>43040</v>
       </c>
@@ -16176,7 +16178,7 @@
         <v>43047</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>53</v>
@@ -16198,7 +16200,7 @@
         <v>43068</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="38"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16220,7 +16222,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="38">
         <v>43070</v>
       </c>
@@ -16246,7 +16248,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>53</v>
@@ -16268,7 +16270,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="45" t="s">
         <v>91</v>
       </c>
@@ -16290,7 +16292,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="38">
         <v>43101</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>60</v>
@@ -16333,7 +16335,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="38">
         <v>43132</v>
       </c>
@@ -16353,7 +16355,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="38">
         <v>43160</v>
       </c>
@@ -16379,7 +16381,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="38">
         <v>43191</v>
       </c>
@@ -16405,7 +16407,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="38">
         <v>43221</v>
       </c>
@@ -16431,7 +16433,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="38"/>
       <c r="B563" s="20" t="s">
         <v>60</v>
@@ -16450,7 +16452,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>53</v>
@@ -16469,7 +16471,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="38">
         <v>43252</v>
       </c>
@@ -16489,7 +16491,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="38">
         <v>43282</v>
       </c>
@@ -16513,7 +16515,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="38"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16532,7 +16534,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="38">
         <v>43313</v>
       </c>
@@ -16558,7 +16560,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="38">
         <v>43344</v>
       </c>
@@ -16578,7 +16580,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="38">
         <v>43374</v>
       </c>
@@ -16598,7 +16600,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="38">
         <v>43405</v>
       </c>
@@ -16620,7 +16622,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="38">
         <v>43435</v>
       </c>
@@ -16646,7 +16648,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="38"/>
       <c r="B573" s="20" t="s">
         <v>65</v>
@@ -16665,7 +16667,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="45" t="s">
         <v>92</v>
       </c>
@@ -16687,7 +16689,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="38">
         <v>43466</v>
       </c>
@@ -16711,7 +16713,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="38"/>
       <c r="B576" s="20" t="s">
         <v>53</v>
@@ -16733,7 +16735,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="38">
         <v>43497</v>
       </c>
@@ -16753,7 +16755,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="38">
         <v>43525</v>
       </c>
@@ -16777,7 +16779,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="38">
         <v>43556</v>
       </c>
@@ -16803,7 +16805,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="38">
         <v>43586</v>
       </c>
@@ -16829,7 +16831,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>53</v>
@@ -16851,7 +16853,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="38"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -16873,7 +16875,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="38">
         <v>43617</v>
       </c>
@@ -16897,7 +16899,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="38"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16913,7 +16915,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="38">
         <v>43647</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>53</v>
@@ -16961,7 +16963,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="38">
         <v>43678</v>
       </c>
@@ -16981,7 +16983,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="38">
         <v>43709</v>
       </c>
@@ -17007,7 +17009,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="38">
         <v>43739</v>
       </c>
@@ -17027,7 +17029,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="38">
         <v>43770</v>
       </c>
@@ -17047,7 +17049,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="38">
         <v>43800</v>
       </c>
@@ -17073,7 +17075,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="38"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17092,7 +17094,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>67</v>
@@ -17109,7 +17111,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="45" t="s">
         <v>46</v>
       </c>
@@ -17127,7 +17129,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="38">
         <v>43831</v>
       </c>
@@ -17147,7 +17149,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="38">
         <v>43862</v>
       </c>
@@ -17171,7 +17173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>51</v>
@@ -17191,7 +17193,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="38">
         <v>43891</v>
       </c>
@@ -17215,7 +17217,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="38">
         <v>43922</v>
       </c>
@@ -17235,7 +17237,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="38">
         <v>43952</v>
       </c>
@@ -17255,7 +17257,7 @@
       <c r="J600" s="12"/>
       <c r="K600" s="15"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="38">
         <v>43983</v>
       </c>
@@ -17275,7 +17277,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="38">
         <v>44013</v>
       </c>
@@ -17301,7 +17303,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="38">
         <v>44044</v>
       </c>
@@ -17321,7 +17323,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="38">
         <v>44075</v>
       </c>
@@ -17341,7 +17343,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="38">
         <v>44105</v>
       </c>
@@ -17365,7 +17367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="38">
         <v>44136</v>
       </c>
@@ -17385,7 +17387,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="38">
         <v>44166</v>
       </c>
@@ -17409,7 +17411,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="38"/>
       <c r="B608" s="20" t="s">
         <v>56</v>
@@ -17431,7 +17433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="38"/>
       <c r="B609" s="20" t="s">
         <v>57</v>
@@ -17451,7 +17453,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="46"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="45" t="s">
         <v>47</v>
       </c>
@@ -17469,7 +17471,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="38">
         <v>44197</v>
       </c>
@@ -17493,7 +17495,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="38">
         <v>44228</v>
       </c>
@@ -17513,7 +17515,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="38">
         <v>44256</v>
       </c>
@@ -17537,7 +17539,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="38">
         <v>44287</v>
       </c>
@@ -17557,7 +17559,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="38">
         <v>44317</v>
       </c>
@@ -17577,7 +17579,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="38">
         <v>44348</v>
       </c>
@@ -17597,7 +17599,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="38">
         <v>44378</v>
       </c>
@@ -17623,7 +17625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="38">
         <v>44409</v>
       </c>
@@ -17649,7 +17651,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="38">
         <v>44440</v>
       </c>
@@ -17669,7 +17671,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="38">
         <v>44470</v>
       </c>
@@ -17695,7 +17697,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="38">
         <v>44501</v>
       </c>
@@ -17719,7 +17721,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="38"/>
       <c r="B622" s="20" t="s">
         <v>61</v>
@@ -17741,7 +17743,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="38">
         <v>44531</v>
       </c>
@@ -17767,7 +17769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="45" t="s">
         <v>48</v>
       </c>
@@ -17785,7 +17787,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="38">
         <v>44562</v>
       </c>
@@ -17805,7 +17807,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="38">
         <v>44593</v>
       </c>
@@ -17825,7 +17827,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="38">
         <v>44621</v>
       </c>
@@ -17849,7 +17851,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -17869,7 +17871,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="38"/>
       <c r="B629" s="20" t="s">
         <v>438</v>
@@ -17889,7 +17891,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="46"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="38">
         <v>44652</v>
       </c>
@@ -17915,7 +17917,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="38"/>
       <c r="B631" s="20" t="s">
         <v>355</v>
@@ -17935,7 +17937,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="46"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="38">
         <v>44682</v>
       </c>
@@ -17961,7 +17963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="38"/>
       <c r="B633" s="20" t="s">
         <v>437</v>
@@ -17981,7 +17983,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="38">
         <v>44713</v>
       </c>
@@ -18007,7 +18009,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="38"/>
       <c r="B635" s="20" t="s">
         <v>436</v>
@@ -18027,7 +18029,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="38">
         <v>44743</v>
       </c>
@@ -18053,7 +18055,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="38"/>
       <c r="B637" s="20" t="s">
         <v>433</v>
@@ -18073,7 +18075,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="46"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="38">
         <v>44774</v>
       </c>
@@ -18097,7 +18099,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="38">
         <v>44805</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="38"/>
       <c r="B640" s="20" t="s">
         <v>176</v>
@@ -18143,7 +18145,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="46"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="38">
         <v>44835</v>
       </c>
@@ -18169,7 +18171,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38"/>
       <c r="B642" s="20" t="s">
         <v>144</v>
@@ -18189,7 +18191,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="46"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="38">
         <v>44866</v>
       </c>
@@ -18215,7 +18217,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38"/>
       <c r="B644" s="20" t="s">
         <v>60</v>
@@ -18237,7 +18239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38"/>
       <c r="B645" s="20" t="s">
         <v>431</v>
@@ -18257,7 +18259,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38">
         <v>44896</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38"/>
       <c r="B647" s="20" t="s">
         <v>67</v>
@@ -18303,7 +18305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38"/>
       <c r="B648" s="20" t="s">
         <v>430</v>
@@ -18323,7 +18325,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="45" t="s">
         <v>426</v>
       </c>
@@ -18341,7 +18343,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="38">
         <v>44927</v>
       </c>
@@ -18361,7 +18363,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38">
         <v>44958</v>
       </c>
@@ -18381,7 +18383,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
         <v>44986</v>
       </c>
@@ -18401,7 +18403,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="38">
         <v>45017</v>
       </c>
@@ -18421,7 +18423,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
         <v>45047</v>
       </c>
@@ -18447,7 +18449,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38"/>
       <c r="B655" s="20" t="s">
         <v>52</v>
@@ -18467,7 +18469,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38">
         <v>45078</v>
       </c>
@@ -18493,7 +18495,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38">
         <v>45108</v>
       </c>
@@ -18519,7 +18521,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38">
         <v>45139</v>
       </c>
@@ -18539,7 +18541,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38">
         <v>45170</v>
       </c>
@@ -18565,7 +18567,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38">
         <v>45200</v>
       </c>
@@ -18591,7 +18593,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38">
         <v>45231</v>
       </c>
@@ -18611,7 +18613,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38">
         <v>45261</v>
       </c>
@@ -18633,7 +18635,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="45" t="s">
         <v>440</v>
       </c>
@@ -18651,11 +18653,13 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38">
         <v>45292</v>
       </c>
-      <c r="B664" s="20"/>
+      <c r="B664" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C664" s="13"/>
       <c r="D664" s="37"/>
       <c r="E664" s="9"/>
@@ -18664,12 +18668,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H664" s="37"/>
+      <c r="H664" s="37">
+        <v>2</v>
+      </c>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="20"/>
-    </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K664" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="38">
         <v>45323</v>
       </c>
@@ -18687,7 +18695,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38">
         <v>45352</v>
       </c>
@@ -18705,7 +18713,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="38">
         <v>45383</v>
       </c>
@@ -18723,7 +18731,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="38"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18739,7 +18747,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="38"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18755,7 +18763,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="38"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18771,7 +18779,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="38"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18787,7 +18795,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="38"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18803,7 +18811,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="38"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18819,7 +18827,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="38"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18835,7 +18843,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="38"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18851,7 +18859,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="38"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18867,7 +18875,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18883,7 +18891,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18899,7 +18907,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="38"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18915,7 +18923,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="38"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18931,7 +18939,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="38"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18947,7 +18955,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="38"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18963,7 +18971,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="38"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18979,7 +18987,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="38"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18995,7 +19003,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="38"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19011,7 +19019,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="38"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19027,7 +19035,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="38"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19043,7 +19051,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="38"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19059,7 +19067,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="38"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19075,7 +19083,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="38"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19091,7 +19099,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="38"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19107,7 +19115,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="38"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19123,7 +19131,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="38"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19139,7 +19147,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="38"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19155,7 +19163,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="38"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19171,7 +19179,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="38"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19187,7 +19195,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="38"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19203,7 +19211,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="38"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19219,7 +19227,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="38"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19235,7 +19243,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="38"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19251,7 +19259,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="38"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19267,7 +19275,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="38"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19283,7 +19291,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="38"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19299,7 +19307,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="38"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19315,7 +19323,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="38"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19331,7 +19339,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="38"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19347,7 +19355,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="38"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19363,7 +19371,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="38"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19379,7 +19387,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="38"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19395,7 +19403,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="38"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19411,7 +19419,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="38"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19427,7 +19435,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="38"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19443,7 +19451,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="38"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19459,7 +19467,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="38"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19475,7 +19483,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="38"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19491,7 +19499,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="38"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19507,7 +19515,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="38"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19523,7 +19531,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="38"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19539,7 +19547,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="38"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19555,7 +19563,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="38"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19571,7 +19579,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="38"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19587,7 +19595,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="38"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19603,7 +19611,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="38"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19619,7 +19627,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="38"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19635,7 +19643,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="38"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19651,7 +19659,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="38"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19667,7 +19675,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="38"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19683,7 +19691,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="38"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19699,7 +19707,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="45" t="s">
         <v>47</v>
       </c>
@@ -19717,7 +19725,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="45" t="s">
         <v>47</v>
       </c>
@@ -19750,10 +19758,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19776,28 +19784,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -19810,7 +19818,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -19839,7 +19847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>7.625</v>
       </c>
@@ -19869,17 +19877,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -19900,7 +19908,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -19927,7 +19935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -19953,7 +19961,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -19979,7 +19987,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -20005,7 +20013,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -20031,7 +20039,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -20057,7 +20065,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -20083,7 +20091,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -20109,7 +20117,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -20129,7 +20137,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -20149,7 +20157,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -20169,7 +20177,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -20190,7 +20198,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -20211,7 +20219,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -20232,7 +20240,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -20253,7 +20261,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -20274,7 +20282,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -20295,7 +20303,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -20316,7 +20324,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -20337,7 +20345,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -20358,7 +20366,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -20379,7 +20387,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -20400,7 +20408,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -20421,7 +20429,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -20442,7 +20450,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -20463,7 +20471,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -20484,7 +20492,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -20505,7 +20513,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20526,7 +20534,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20547,7 +20555,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20568,7 +20576,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20589,7 +20597,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20598,7 +20606,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20607,7 +20615,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20616,7 +20624,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20625,7 +20633,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20634,7 +20642,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20643,7 +20651,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20652,7 +20660,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20661,7 +20669,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20670,7 +20678,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20679,7 +20687,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20688,7 +20696,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20697,7 +20705,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20706,7 +20714,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20715,7 +20723,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20724,7 +20732,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20733,7 +20741,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20742,7 +20750,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20751,7 +20759,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20760,7 +20768,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20769,7 +20777,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -20778,7 +20786,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -20787,7 +20795,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -20796,7 +20804,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -20805,7 +20813,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -20814,7 +20822,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -20823,7 +20831,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -20832,7 +20840,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -20841,7 +20849,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -20850,7 +20858,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="447">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1363,6 +1363,18 @@
   </si>
   <si>
     <t>12/27,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
+  </si>
+  <si>
+    <t>UT(0-2-55)</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
+  </si>
+  <si>
+    <t>UT(0-0-42)</t>
   </si>
 </sst>
 </file>
@@ -3498,8 +3510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K730"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K738"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3846,12 +3858,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K730"/>
+  <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A652" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A643" activePane="bottomLeft"/>
       <selection activeCell="K10" sqref="K10"/>
-      <selection pane="bottomLeft" activeCell="F665" sqref="F665"/>
+      <selection pane="bottomLeft" activeCell="F655" sqref="F655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4026,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.313999999999965</v>
+        <v>71.658999999999878</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -18347,11 +18359,15 @@
       <c r="A650" s="38">
         <v>44927</v>
       </c>
-      <c r="B650" s="20"/>
+      <c r="B650" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="C650" s="13">
         <v>1.25</v>
       </c>
-      <c r="D650" s="37"/>
+      <c r="D650" s="37">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13">
@@ -18367,11 +18383,15 @@
       <c r="A651" s="38">
         <v>44958</v>
       </c>
-      <c r="B651" s="20"/>
+      <c r="B651" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C651" s="13">
         <v>1.25</v>
       </c>
-      <c r="D651" s="37"/>
+      <c r="D651" s="37">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
       <c r="G651" s="13">
@@ -18387,11 +18407,15 @@
       <c r="A652" s="38">
         <v>44986</v>
       </c>
-      <c r="B652" s="20"/>
+      <c r="B652" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="C652" s="13">
         <v>1.25</v>
       </c>
-      <c r="D652" s="37"/>
+      <c r="D652" s="37">
+        <v>1</v>
+      </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
       <c r="G652" s="13">
@@ -18401,40 +18425,42 @@
       <c r="H652" s="37"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="20"/>
+      <c r="K652" s="46">
+        <v>45000</v>
+      </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B653" s="20"/>
-      <c r="C653" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D653" s="37"/>
+      <c r="A653" s="38"/>
+      <c r="B653" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C653" s="13"/>
+      <c r="D653" s="37">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G653" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H653" s="37"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="46"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B654" s="20" t="s">
-        <v>56</v>
+        <v>432</v>
       </c>
       <c r="C654" s="13">
         <v>1.25</v>
       </c>
       <c r="D654" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
@@ -18445,17 +18471,19 @@
       <c r="H654" s="37"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="20" t="s">
-        <v>427</v>
+      <c r="K654" s="46">
+        <v>45043</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38"/>
       <c r="B655" s="20" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C655" s="13"/>
-      <c r="D655" s="37"/>
+      <c r="D655" s="37">
+        <v>2E-3</v>
+      </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13" t="str">
@@ -18465,88 +18493,80 @@
       <c r="H655" s="37"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="46">
-        <v>45058</v>
-      </c>
+      <c r="K655" s="46"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B656" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C656" s="13">
         <v>1.25</v>
       </c>
-      <c r="D656" s="37"/>
+      <c r="D656" s="37">
+        <v>2</v>
+      </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
       <c r="G656" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H656" s="37">
-        <v>1</v>
-      </c>
+      <c r="H656" s="37"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="46">
-        <v>45090</v>
+      <c r="K656" s="20" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="38">
-        <v>45108</v>
-      </c>
+      <c r="A657" s="38"/>
       <c r="B657" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C657" s="13">
-        <v>1.25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C657" s="13"/>
       <c r="D657" s="37"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H657" s="37">
-        <v>1</v>
-      </c>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H657" s="37"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
       <c r="K657" s="46">
-        <v>45113</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="38">
-        <v>45139</v>
-      </c>
-      <c r="B658" s="20"/>
-      <c r="C658" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D658" s="37"/>
+      <c r="A658" s="38"/>
+      <c r="B658" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C658" s="13"/>
+      <c r="D658" s="37">
+        <v>0.53500000000000003</v>
+      </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H658" s="37"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20"/>
+      <c r="K658" s="46"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B659" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C659" s="13">
         <v>1.25</v>
@@ -18559,45 +18579,41 @@
         <v>1.25</v>
       </c>
       <c r="H659" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20" t="s">
-        <v>439</v>
+      <c r="K659" s="46">
+        <v>45090</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="38">
-        <v>45200</v>
-      </c>
+      <c r="A660" s="38"/>
       <c r="B660" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C660" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D660" s="37"/>
+        <v>445</v>
+      </c>
+      <c r="C660" s="13"/>
+      <c r="D660" s="37">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H660" s="37">
-        <v>1</v>
-      </c>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H660" s="37"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="46">
-        <v>45212</v>
-      </c>
+      <c r="K660" s="46"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38">
-        <v>45231</v>
-      </c>
-      <c r="B661" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B661" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C661" s="13">
         <v>1.25</v>
       </c>
@@ -18608,20 +18624,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H661" s="37"/>
+      <c r="H661" s="37">
+        <v>1</v>
+      </c>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20"/>
+      <c r="K661" s="46">
+        <v>45113</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="38">
-        <v>45261</v>
-      </c>
+      <c r="A662" s="38"/>
       <c r="B662" s="20" t="s">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="C662" s="13"/>
-      <c r="D662" s="37"/>
+      <c r="D662" s="37">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
       <c r="G662" s="13" t="str">
@@ -18631,22 +18651,26 @@
       <c r="H662" s="37"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20" t="s">
-        <v>441</v>
-      </c>
+      <c r="K662" s="46"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="13"/>
-      <c r="D663" s="37"/>
+      <c r="A663" s="38">
+        <v>45139</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D663" s="37">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H663" s="37"/>
       <c r="I663" s="9"/>
@@ -18655,18 +18679,20 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38">
-        <v>45292</v>
+        <v>45170</v>
       </c>
       <c r="B664" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C664" s="13"/>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="37"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="37">
         <v>2</v>
@@ -18674,16 +18700,18 @@
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
       <c r="K664" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B665" s="20"/>
+      <c r="A665" s="38"/>
+      <c r="B665" s="20" t="s">
+        <v>444</v>
+      </c>
       <c r="C665" s="13"/>
-      <c r="D665" s="37"/>
+      <c r="D665" s="37">
+        <v>0.36499999999999999</v>
+      </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="13" t="str">
@@ -18697,29 +18725,39 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B666" s="20"/>
-      <c r="C666" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B666" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D666" s="37"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H666" s="37"/>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H666" s="37">
+        <v>1</v>
+      </c>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20"/>
+      <c r="K666" s="46">
+        <v>45212</v>
+      </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="38">
-        <v>45383</v>
-      </c>
-      <c r="B667" s="20"/>
+      <c r="A667" s="38"/>
+      <c r="B667" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C667" s="13"/>
-      <c r="D667" s="37"/>
+      <c r="D667" s="37">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
       <c r="G667" s="13" t="str">
@@ -18729,18 +18767,26 @@
       <c r="H667" s="37"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="20"/>
+      <c r="K667" s="46"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="38"/>
-      <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
-      <c r="D668" s="37"/>
+      <c r="A668" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B668" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D668" s="37">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="37"/>
       <c r="I668" s="9"/>
@@ -18748,8 +18794,12 @@
       <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="38"/>
-      <c r="B669" s="20"/>
+      <c r="A669" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>328</v>
+      </c>
       <c r="C669" s="13"/>
       <c r="D669" s="37"/>
       <c r="E669" s="9"/>
@@ -18761,13 +18811,19 @@
       <c r="H669" s="37"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="20" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="38"/>
-      <c r="B670" s="20"/>
+      <c r="B670" s="20" t="s">
+        <v>433</v>
+      </c>
       <c r="C670" s="13"/>
-      <c r="D670" s="37"/>
+      <c r="D670" s="37">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
       <c r="G670" s="13" t="str">
@@ -18780,7 +18836,9 @@
       <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="38"/>
+      <c r="A671" s="45" t="s">
+        <v>440</v>
+      </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
       <c r="D671" s="37"/>
@@ -18796,8 +18854,12 @@
       <c r="K671" s="20"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="38"/>
-      <c r="B672" s="20"/>
+      <c r="A672" s="38">
+        <v>45292</v>
+      </c>
+      <c r="B672" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C672" s="13"/>
       <c r="D672" s="37"/>
       <c r="E672" s="9"/>
@@ -18806,13 +18868,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H672" s="37"/>
+      <c r="H672" s="37">
+        <v>2</v>
+      </c>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="20"/>
+      <c r="K672" s="20" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="38"/>
+      <c r="A673" s="38">
+        <v>45323</v>
+      </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
       <c r="D673" s="37"/>
@@ -18828,7 +18896,9 @@
       <c r="K673" s="20"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="38"/>
+      <c r="A674" s="38">
+        <v>45352</v>
+      </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
       <c r="D674" s="37"/>
@@ -18844,7 +18914,9 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="38"/>
+      <c r="A675" s="38">
+        <v>45383</v>
+      </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
       <c r="D675" s="37"/>
@@ -19708,9 +19780,7 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="45" t="s">
-        <v>47</v>
-      </c>
+      <c r="A729" s="38"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
       <c r="D729" s="37"/>
@@ -19726,9 +19796,7 @@
       <c r="K729" s="20"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="45" t="s">
-        <v>47</v>
-      </c>
+      <c r="A730" s="38"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
       <c r="D730" s="37"/>
@@ -19740,8 +19808,140 @@
       </c>
       <c r="H730" s="37"/>
       <c r="I730" s="9"/>
-      <c r="J730" s="12"/>
-      <c r="K730" s="15"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="38"/>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="37"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="37"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="38"/>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="37"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="37"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="38"/>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="37"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="37"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="38"/>
+      <c r="B734" s="20"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="37"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="37"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="38"/>
+      <c r="B735" s="20"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="37"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="37"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="38"/>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="37"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="37"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="37"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="37"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="37"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="37"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="12"/>
+      <c r="K738" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19854,18 +20054,14 @@
       <c r="B3" s="11">
         <v>9.125</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>3</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G3" s="42">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.38100000000000001</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="33">

--- a/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="447">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2106,7 +2106,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2149,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2213,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2273,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2339,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2402,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2500,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2559,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2624,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2667,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2742,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2928,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2994,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3118,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3174,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3249,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,7 +3292,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3358,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3414,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,8 +3510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K738"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K739"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3858,12 +3858,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K738"/>
+  <dimension ref="A2:K739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A643" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A661" activePane="bottomLeft"/>
       <selection activeCell="K10" sqref="K10"/>
-      <selection pane="bottomLeft" activeCell="F655" sqref="F655"/>
+      <selection pane="bottomLeft" activeCell="K673" sqref="K673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18878,10 +18878,10 @@
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B673" s="20"/>
+      <c r="A673" s="38"/>
+      <c r="B673" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C673" s="13"/>
       <c r="D673" s="37"/>
       <c r="E673" s="9"/>
@@ -18893,11 +18893,13 @@
       <c r="H673" s="37"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="46">
+        <v>45315</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="38">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18915,7 +18917,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="38">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18932,7 +18934,9 @@
       <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="38"/>
+      <c r="A676" s="38">
+        <v>45383</v>
+      </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
       <c r="D676" s="37"/>
@@ -19908,9 +19912,7 @@
       <c r="K736" s="20"/>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A737" s="45" t="s">
-        <v>47</v>
-      </c>
+      <c r="A737" s="38"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
       <c r="D737" s="37"/>
@@ -19940,8 +19942,26 @@
       </c>
       <c r="H738" s="37"/>
       <c r="I738" s="9"/>
-      <c r="J738" s="12"/>
-      <c r="K738" s="15"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B739" s="20"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="37"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="37"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="12"/>
+      <c r="K739" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/BUDGET/MARTINEZ, BELEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8CACB4-9396-42BE-9608-DA40EDD8C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="447">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1380,7 +1381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2106,7 +2107,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2150,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2214,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2274,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2340,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2403,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2501,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2560,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2625,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2668,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2743,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2929,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2995,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3053,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3119,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3175,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3250,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,7 +3293,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3359,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3415,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3494,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3510,26 +3511,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K739"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K739" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3836,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3846,7 +3847,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3854,34 +3855,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A661" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A661" activePane="bottomLeft"/>
       <selection activeCell="K10" sqref="K10"/>
-      <selection pane="bottomLeft" activeCell="K673" sqref="K673"/>
+      <selection pane="bottomLeft" activeCell="B675" sqref="B675"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3904,7 +3905,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3922,7 +3923,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3944,7 +3945,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3952,7 +3953,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3965,7 +3966,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3982,7 +3983,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
         <v>23</v>
@@ -4026,7 +4027,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.658999999999878</v>
+        <v>72.908999999999878</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4036,12 +4037,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>156.875</v>
+        <v>158.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
         <v>70</v>
@@ -4063,7 +4064,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="54">
         <v>35430</v>
@@ -4078,7 +4079,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="46" t="s">
         <v>71</v>
@@ -4098,7 +4099,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>69</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>35431</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>52</v>
@@ -4156,7 +4157,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>53</v>
@@ -4175,7 +4176,7 @@
         <v>35458</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>35462</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>35490</v>
       </c>
@@ -4215,7 +4216,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>35521</v>
       </c>
@@ -4235,7 +4236,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>35551</v>
       </c>
@@ -4259,7 +4260,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>35582</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>35612</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>35643</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>35674</v>
       </c>
@@ -4345,7 +4346,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>35704</v>
       </c>
@@ -4365,7 +4366,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>35735</v>
       </c>
@@ -4385,7 +4386,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>35765</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>72</v>
       </c>
@@ -4431,7 +4432,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>35796</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>35802</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>99</v>
@@ -4477,7 +4478,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>35827</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>60</v>
@@ -4525,7 +4526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>35855</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4571,7 +4572,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>35886</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>35891</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>35916</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>100</v>
@@ -4645,7 +4646,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4663,7 +4664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>101</v>
@@ -4683,7 +4684,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>35947</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>35964</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="20" t="s">
         <v>99</v>
@@ -4729,7 +4730,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>35977</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>36004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>102</v>
@@ -4775,7 +4776,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>36008</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>36033</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>103</v>
@@ -4818,7 +4819,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>36039</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>36045</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -4866,7 +4867,7 @@
         <v>36066</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>109</v>
@@ -4886,7 +4887,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>36069</v>
       </c>
@@ -4906,7 +4907,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>36100</v>
       </c>
@@ -4930,7 +4931,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>36130</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="20" t="s">
         <v>111</v>
@@ -4976,7 +4977,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>112</v>
       </c>
@@ -4998,7 +4999,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>36161</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -5044,7 +5045,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>36192</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="20" t="s">
         <v>113</v>
@@ -5090,7 +5091,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>36220</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -5136,7 +5137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5158,7 +5159,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>114</v>
@@ -5178,7 +5179,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>36251</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>61</v>
@@ -5226,7 +5227,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="20" t="s">
         <v>429</v>
@@ -5246,7 +5247,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="46"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>36281</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -5289,7 +5290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>53</v>
@@ -5308,7 +5309,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>110</v>
@@ -5325,7 +5326,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>36312</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>36317</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -5371,7 +5372,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>36342</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>36346</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>116</v>
@@ -5417,7 +5418,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>36373</v>
       </c>
@@ -5441,7 +5442,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>36404</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>36419</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="20" t="s">
         <v>118</v>
@@ -5489,7 +5490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -5506,7 +5507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>119</v>
@@ -5528,7 +5529,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5548,7 +5549,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>36434</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>61</v>
@@ -5596,7 +5597,7 @@
         <v>36459</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>121</v>
@@ -5616,7 +5617,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>36465</v>
       </c>
@@ -5640,7 +5641,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>36495</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
       <c r="B84" s="20" t="s">
         <v>131</v>
@@ -5683,7 +5684,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
         <v>73</v>
       </c>
@@ -5705,7 +5706,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>36526</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>132</v>
@@ -5746,7 +5747,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>36557</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>36570</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>133</v>
@@ -5792,7 +5793,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>36586</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>60</v>
@@ -5838,7 +5839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20" t="s">
         <v>134</v>
@@ -5858,7 +5859,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>36617</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>135</v>
@@ -5904,7 +5905,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>36647</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>61</v>
@@ -5952,7 +5953,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>136</v>
@@ -5972,7 +5973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>36678</v>
       </c>
@@ -5992,7 +5993,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <v>36708</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>36739</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>53</v>
@@ -6064,7 +6065,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>144</v>
@@ -6084,7 +6085,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>36770</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38">
         <v>36800</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="20" t="s">
         <v>145</v>
@@ -6158,7 +6159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20" t="s">
         <v>61</v>
@@ -6180,7 +6181,7 @@
         <v>36839</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>36831</v>
       </c>
@@ -6204,7 +6205,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>36861</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>36874</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -6252,7 +6253,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -6274,7 +6275,7 @@
         <v>36888</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="20" t="s">
         <v>147</v>
@@ -6294,7 +6295,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="45" t="s">
         <v>74</v>
       </c>
@@ -6316,7 +6317,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38">
         <v>36892</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="20" t="s">
         <v>53</v>
@@ -6359,7 +6360,7 @@
         <v>36921</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>151</v>
@@ -6376,7 +6377,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38">
         <v>36923</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>36931</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -6419,7 +6420,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>36951</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="20" t="s">
         <v>158</v>
@@ -6462,7 +6463,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="46"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>36982</v>
       </c>
@@ -6486,7 +6487,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>37012</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="20" t="s">
         <v>56</v>
@@ -6534,7 +6535,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>60</v>
@@ -6556,7 +6557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38">
         <v>37043</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38"/>
       <c r="B125" s="20" t="s">
         <v>154</v>
@@ -6602,7 +6603,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>37073</v>
       </c>
@@ -6626,7 +6627,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>37104</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>37123</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>113</v>
@@ -6672,7 +6673,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>37135</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>155</v>
@@ -6718,7 +6719,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <v>37165</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>37179</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
       <c r="B132" s="20" t="s">
         <v>52</v>
@@ -6764,7 +6765,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
       <c r="B133" s="20" t="s">
         <v>156</v>
@@ -6784,7 +6785,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>37196</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>61</v>
@@ -6832,7 +6833,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38"/>
       <c r="B136" s="20" t="s">
         <v>157</v>
@@ -6852,7 +6853,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38">
         <v>37226</v>
       </c>
@@ -6872,7 +6873,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="45" t="s">
         <v>75</v>
       </c>
@@ -6894,7 +6895,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>37257</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>37270</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38"/>
       <c r="B140" s="20" t="s">
         <v>52</v>
@@ -6940,7 +6941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38"/>
       <c r="B141" s="20" t="s">
         <v>165</v>
@@ -6960,7 +6961,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <v>37288</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38"/>
       <c r="B143" s="20" t="s">
         <v>53</v>
@@ -7008,7 +7009,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>56</v>
@@ -7030,7 +7031,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7052,7 +7053,7 @@
         <v>37313</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>61</v>
@@ -7074,7 +7075,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38"/>
       <c r="B147" s="20" t="s">
         <v>168</v>
@@ -7091,7 +7092,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38">
         <v>37316</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>37334</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>53</v>
@@ -7136,7 +7137,7 @@
         <v>37336</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38"/>
       <c r="B150" s="20" t="s">
         <v>52</v>
@@ -7156,7 +7157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>169</v>
@@ -7176,7 +7177,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38">
         <v>37347</v>
       </c>
@@ -7200,7 +7201,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38">
         <v>37377</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>53</v>
@@ -7248,7 +7249,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38"/>
       <c r="B155" s="20" t="s">
         <v>170</v>
@@ -7268,7 +7269,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38">
         <v>37408</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>37413</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>169</v>
@@ -7314,7 +7315,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="46"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38">
         <v>37438</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>37441</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>174</v>
@@ -7360,7 +7361,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38">
         <v>37469</v>
       </c>
@@ -7384,7 +7385,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38">
         <v>37500</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -7430,7 +7431,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>37530</v>
       </c>
@@ -7454,7 +7455,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <v>37561</v>
       </c>
@@ -7478,7 +7479,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38">
         <v>37591</v>
       </c>
@@ -7502,7 +7503,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="45" t="s">
         <v>76</v>
       </c>
@@ -7524,7 +7525,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38">
         <v>37622</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -7570,7 +7571,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>52</v>
@@ -7590,7 +7591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38">
         <v>37653</v>
       </c>
@@ -7614,7 +7615,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>52</v>
@@ -7634,7 +7635,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38">
         <v>37681</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>180</v>
@@ -7677,7 +7678,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38">
         <v>37712</v>
       </c>
@@ -7701,7 +7702,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>37742</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -7749,7 +7750,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38">
         <v>37773</v>
       </c>
@@ -7773,7 +7774,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7795,7 +7796,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38">
         <v>37803</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -7843,7 +7844,7 @@
         <v>37825</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>187</v>
@@ -7863,7 +7864,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38">
         <v>37834</v>
       </c>
@@ -7883,7 +7884,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <v>37865</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>188</v>
@@ -7929,7 +7930,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38">
         <v>37895</v>
       </c>
@@ -7953,7 +7954,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38">
         <v>37926</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>37935</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38"/>
       <c r="B187" s="20" t="s">
         <v>53</v>
@@ -8001,7 +8002,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="20" t="s">
         <v>190</v>
@@ -8019,7 +8020,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38">
         <v>37956</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>37971</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>191</v>
@@ -8065,7 +8066,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="45" t="s">
         <v>77</v>
       </c>
@@ -8087,7 +8088,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38">
         <v>37987</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8135,7 +8136,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38"/>
       <c r="B194" s="20" t="s">
         <v>192</v>
@@ -8155,7 +8156,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>52</v>
@@ -8175,7 +8176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38">
         <v>38018</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38"/>
       <c r="B197" s="20" t="s">
         <v>193</v>
@@ -8221,7 +8222,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8241,7 +8242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38">
         <v>38047</v>
       </c>
@@ -8265,7 +8266,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38">
         <v>38078</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>115</v>
@@ -8311,7 +8312,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38">
         <v>38108</v>
       </c>
@@ -8337,7 +8338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="20" t="s">
         <v>60</v>
@@ -8359,7 +8360,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>60</v>
@@ -8381,7 +8382,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>198</v>
@@ -8401,7 +8402,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38">
         <v>38139</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>56</v>
@@ -8449,7 +8450,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>203</v>
@@ -8469,7 +8470,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38">
         <v>38169</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>204</v>
@@ -8517,7 +8518,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="20" t="s">
         <v>205</v>
@@ -8537,7 +8538,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38">
         <v>38200</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>38201</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>206</v>
@@ -8583,7 +8584,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38">
         <v>38231</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>38230</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>207</v>
@@ -8629,7 +8630,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8646,7 +8647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38">
         <v>38261</v>
       </c>
@@ -8670,7 +8671,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38">
         <v>38292</v>
       </c>
@@ -8694,7 +8695,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38">
         <v>38322</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
       <c r="B220" s="20" t="s">
         <v>213</v>
@@ -8737,7 +8738,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="45" t="s">
         <v>78</v>
       </c>
@@ -8759,7 +8760,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38">
         <v>38353</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38"/>
       <c r="B223" s="20" t="s">
         <v>53</v>
@@ -8804,7 +8805,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>52</v>
@@ -8824,7 +8825,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>215</v>
@@ -8841,7 +8842,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38">
         <v>38384</v>
       </c>
@@ -8865,7 +8866,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38"/>
       <c r="B227" s="20" t="s">
         <v>52</v>
@@ -8885,7 +8886,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38">
         <v>38412</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>52</v>
@@ -8928,7 +8929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>217</v>
@@ -8945,7 +8946,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <v>38443</v>
       </c>
@@ -8971,7 +8972,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>57</v>
@@ -8990,7 +8991,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>203</v>
@@ -9007,7 +9008,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38">
         <v>38473</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
         <v>218</v>
@@ -9050,7 +9051,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38">
         <v>38504</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>219</v>
@@ -9096,7 +9097,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <v>38534</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>224</v>
@@ -9142,7 +9143,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="46"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38">
         <v>38565</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9190,7 +9191,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>225</v>
@@ -9210,7 +9211,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38">
         <v>38596</v>
       </c>
@@ -9234,7 +9235,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <v>38626</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>101</v>
@@ -9280,7 +9281,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38">
         <v>38657</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38"/>
       <c r="B247" s="20" t="s">
         <v>228</v>
@@ -9326,7 +9327,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38">
         <v>38687</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>229</v>
@@ -9372,7 +9373,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="45" t="s">
         <v>79</v>
       </c>
@@ -9394,7 +9395,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38">
         <v>38718</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38">
         <v>38749</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>38756</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>53</v>
@@ -9463,7 +9464,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>52</v>
@@ -9480,7 +9481,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
       <c r="B255" s="20" t="s">
         <v>136</v>
@@ -9497,7 +9498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <v>38777</v>
       </c>
@@ -9517,7 +9518,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38">
         <v>38808</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>100</v>
@@ -9562,7 +9563,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38"/>
       <c r="B259" s="20" t="s">
         <v>61</v>
@@ -9581,7 +9582,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38">
         <v>38838</v>
       </c>
@@ -9605,7 +9606,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38">
         <v>38869</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38"/>
       <c r="B262" s="20" t="s">
         <v>52</v>
@@ -9649,7 +9650,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>237</v>
@@ -9669,7 +9670,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38">
         <v>38899</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38"/>
       <c r="B265" s="20" t="s">
         <v>238</v>
@@ -9713,7 +9714,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <v>38930</v>
       </c>
@@ -9737,7 +9738,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38">
         <v>38961</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>241</v>
@@ -9783,7 +9784,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38">
         <v>38991</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>240</v>
@@ -9829,7 +9830,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <v>39022</v>
       </c>
@@ -9853,7 +9854,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38">
         <v>39052</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>243</v>
@@ -9899,7 +9900,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="45" t="s">
         <v>80</v>
       </c>
@@ -9921,7 +9922,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38">
         <v>39083</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>52</v>
@@ -9965,7 +9966,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38"/>
       <c r="B277" s="20" t="s">
         <v>250</v>
@@ -9985,7 +9986,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38">
         <v>39114</v>
       </c>
@@ -10011,7 +10012,7 @@
         <v>39120</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>57</v>
@@ -10033,7 +10034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38"/>
       <c r="B280" s="20" t="s">
         <v>52</v>
@@ -10053,7 +10054,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>251</v>
@@ -10073,7 +10074,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38">
         <v>39142</v>
       </c>
@@ -10097,7 +10098,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>39173</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>67</v>
@@ -10145,7 +10146,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>170</v>
@@ -10165,7 +10166,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38">
         <v>39203</v>
       </c>
@@ -10189,7 +10190,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38">
         <v>39234</v>
       </c>
@@ -10213,7 +10214,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38">
         <v>39264</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10261,7 +10262,7 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38"/>
       <c r="B290" s="20" t="s">
         <v>260</v>
@@ -10281,7 +10282,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>39295</v>
       </c>
@@ -10305,7 +10306,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38">
         <v>39326</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38"/>
       <c r="B293" s="20" t="s">
         <v>262</v>
@@ -10351,7 +10352,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="38">
         <v>39356</v>
       </c>
@@ -10375,7 +10376,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>39387</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>53</v>
@@ -10420,7 +10421,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38"/>
       <c r="B297" s="20" t="s">
         <v>276</v>
@@ -10437,7 +10438,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>39417</v>
       </c>
@@ -10461,7 +10462,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="45" t="s">
         <v>81</v>
       </c>
@@ -10483,7 +10484,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38">
         <v>39448</v>
       </c>
@@ -10507,7 +10508,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>52</v>
@@ -10527,7 +10528,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <v>39479</v>
       </c>
@@ -10551,7 +10552,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>39508</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38"/>
       <c r="B304" s="20" t="s">
         <v>65</v>
@@ -10597,7 +10598,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>268</v>
@@ -10617,7 +10618,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>39539</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>39552</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>52</v>
@@ -10663,7 +10664,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>267</v>
@@ -10683,7 +10684,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38">
         <v>39569</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>53</v>
@@ -10731,7 +10732,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
       <c r="B311" s="20" t="s">
         <v>269</v>
@@ -10751,7 +10752,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38">
         <v>39600</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>270</v>
@@ -10797,7 +10798,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38">
         <v>39630</v>
       </c>
@@ -10821,7 +10822,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38">
         <v>39661</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38"/>
       <c r="B316" s="20" t="s">
         <v>278</v>
@@ -10867,7 +10868,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>39692</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>145</v>
@@ -10915,7 +10916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>279</v>
@@ -10935,7 +10936,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>39722</v>
       </c>
@@ -10959,7 +10960,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <v>39753</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>282</v>
@@ -11005,7 +11006,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38">
         <v>39783</v>
       </c>
@@ -11029,7 +11030,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="45" t="s">
         <v>82</v>
       </c>
@@ -11051,7 +11052,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <v>39814</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>52</v>
@@ -11095,7 +11096,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>65</v>
@@ -11117,7 +11118,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
       <c r="B328" s="20" t="s">
         <v>285</v>
@@ -11137,7 +11138,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>39845</v>
       </c>
@@ -11161,7 +11162,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <v>39873</v>
       </c>
@@ -11185,7 +11186,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38">
         <v>39904</v>
       </c>
@@ -11209,7 +11210,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <v>39934</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>289</v>
@@ -11255,7 +11256,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38"/>
       <c r="B334" s="20" t="s">
         <v>60</v>
@@ -11277,7 +11278,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38">
         <v>39965</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11325,7 +11326,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>264</v>
@@ -11345,7 +11346,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <v>39995</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>290</v>
@@ -11389,7 +11390,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38">
         <v>40026</v>
       </c>
@@ -11413,7 +11414,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>40057</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>292</v>
@@ -11459,7 +11460,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <v>40087</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>65</v>
@@ -11507,7 +11508,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>215</v>
@@ -11527,7 +11528,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
         <v>40118</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>293</v>
@@ -11573,7 +11574,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <v>40148</v>
       </c>
@@ -11597,7 +11598,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="45" t="s">
         <v>83</v>
       </c>
@@ -11619,7 +11620,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>40179</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38"/>
       <c r="B351" s="20" t="s">
         <v>65</v>
@@ -11667,7 +11668,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>52</v>
@@ -11687,7 +11688,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>296</v>
@@ -11707,7 +11708,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38">
         <v>40210</v>
       </c>
@@ -11731,7 +11732,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>297</v>
@@ -11751,7 +11752,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38">
         <v>40238</v>
       </c>
@@ -11775,7 +11776,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
         <v>40269</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38"/>
       <c r="B358" s="20" t="s">
         <v>305</v>
@@ -11821,7 +11822,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
         <v>40299</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38"/>
       <c r="B360" s="20" t="s">
         <v>306</v>
@@ -11867,7 +11868,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38">
         <v>40330</v>
       </c>
@@ -11891,7 +11892,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38">
         <v>40360</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>40392</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38"/>
       <c r="B363" s="20" t="s">
         <v>308</v>
@@ -11937,7 +11938,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38">
         <v>40391</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -11985,7 +11986,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38"/>
       <c r="B366" s="20" t="s">
         <v>309</v>
@@ -12005,7 +12006,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38">
         <v>40422</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>53</v>
@@ -12053,7 +12054,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
       <c r="B369" s="20" t="s">
         <v>291</v>
@@ -12073,7 +12074,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38">
         <v>40452</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>40469</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
       <c r="B371" s="20" t="s">
         <v>310</v>
@@ -12119,7 +12120,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38">
         <v>40483</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12165,7 +12166,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="38"/>
       <c r="B374" s="20" t="s">
         <v>67</v>
@@ -12187,7 +12188,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>311</v>
@@ -12207,7 +12208,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38">
         <v>40513</v>
       </c>
@@ -12231,7 +12232,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="45" t="s">
         <v>84</v>
       </c>
@@ -12253,7 +12254,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38">
         <v>40544</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>53</v>
@@ -12299,7 +12300,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38"/>
       <c r="B380" s="20" t="s">
         <v>65</v>
@@ -12321,7 +12322,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>179</v>
@@ -12341,7 +12342,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38">
         <v>40575</v>
       </c>
@@ -12365,7 +12366,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38">
         <v>40603</v>
       </c>
@@ -12389,7 +12390,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38">
         <v>40634</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>318</v>
@@ -12435,7 +12436,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38">
         <v>40664</v>
       </c>
@@ -12461,7 +12462,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="38"/>
       <c r="B387" s="20" t="s">
         <v>319</v>
@@ -12481,7 +12482,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38">
         <v>40695</v>
       </c>
@@ -12507,7 +12508,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>67</v>
@@ -12529,7 +12530,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38"/>
       <c r="B390" s="20" t="s">
         <v>207</v>
@@ -12549,7 +12550,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38">
         <v>40725</v>
       </c>
@@ -12575,7 +12576,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38">
         <v>40756</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38"/>
       <c r="B393" s="20" t="s">
         <v>321</v>
@@ -12621,7 +12622,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="38">
         <v>40787</v>
       </c>
@@ -12647,7 +12648,7 @@
         <v>40799</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38">
         <v>40817</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38"/>
       <c r="B396" s="20" t="s">
         <v>326</v>
@@ -12693,7 +12694,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38">
         <v>40848</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>327</v>
@@ -12739,7 +12740,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38">
         <v>40878</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38"/>
       <c r="B400" s="20" t="s">
         <v>100</v>
@@ -12785,7 +12786,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>329</v>
@@ -12805,7 +12806,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="45" t="s">
         <v>85</v>
       </c>
@@ -12827,7 +12828,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38">
         <v>40909</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38"/>
       <c r="B404" s="20" t="s">
         <v>332</v>
@@ -12873,7 +12874,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38">
         <v>40940</v>
       </c>
@@ -12897,7 +12898,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38">
         <v>40969</v>
       </c>
@@ -12921,7 +12922,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>52</v>
@@ -12941,7 +12942,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38"/>
       <c r="B408" s="20" t="s">
         <v>334</v>
@@ -12961,7 +12962,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38">
         <v>41000</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="B410" s="20" t="s">
         <v>335</v>
@@ -13007,7 +13008,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38">
         <v>41030</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="38"/>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -13055,7 +13056,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="38"/>
       <c r="B413" s="20" t="s">
         <v>336</v>
@@ -13075,7 +13076,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38">
         <v>41061</v>
       </c>
@@ -13099,7 +13100,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="38">
         <v>41091</v>
       </c>
@@ -13125,7 +13126,7 @@
         <v>41109</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>343</v>
@@ -13142,7 +13143,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="38">
         <v>41122</v>
       </c>
@@ -13166,7 +13167,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="38">
         <v>41153</v>
       </c>
@@ -13190,7 +13191,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="38">
         <v>41183</v>
       </c>
@@ -13214,7 +13215,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="38">
         <v>41214</v>
       </c>
@@ -13238,7 +13239,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>52</v>
@@ -13258,7 +13259,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13278,7 +13279,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="38">
         <v>41244</v>
       </c>
@@ -13304,7 +13305,7 @@
         <v>41270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
       <c r="B424" s="20" t="s">
         <v>65</v>
@@ -13324,7 +13325,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>170</v>
@@ -13344,7 +13345,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="45" t="s">
         <v>86</v>
       </c>
@@ -13366,7 +13367,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="38">
         <v>41275</v>
       </c>
@@ -13390,7 +13391,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="38"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -13410,7 +13411,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="38">
         <v>41306</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>60</v>
@@ -13458,7 +13459,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="38"/>
       <c r="B431" s="20" t="s">
         <v>65</v>
@@ -13478,7 +13479,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>347</v>
@@ -13498,7 +13499,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="38">
         <v>41334</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="38"/>
       <c r="B434" s="20" t="s">
         <v>348</v>
@@ -13542,7 +13543,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="38">
         <v>41365</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>41379</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="38"/>
       <c r="B436" s="20" t="s">
         <v>65</v>
@@ -13590,7 +13591,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="38"/>
       <c r="B437" s="20" t="s">
         <v>60</v>
@@ -13612,7 +13613,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>354</v>
@@ -13632,7 +13633,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="38">
         <v>41395</v>
       </c>
@@ -13656,7 +13657,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="38">
         <v>41426</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="38"/>
       <c r="B441" s="20" t="s">
         <v>60</v>
@@ -13704,7 +13705,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="38"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -13726,7 +13727,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="38"/>
       <c r="B443" s="20" t="s">
         <v>270</v>
@@ -13746,7 +13747,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="38">
         <v>41456</v>
       </c>
@@ -13772,7 +13773,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>356</v>
@@ -13792,7 +13793,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="38">
         <v>41487</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="38"/>
       <c r="B447" s="20" t="s">
         <v>357</v>
@@ -13838,7 +13839,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="38">
         <v>41518</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="38"/>
       <c r="B449" s="20" t="s">
         <v>53</v>
@@ -13886,7 +13887,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="38"/>
       <c r="B450" s="20" t="s">
         <v>60</v>
@@ -13908,7 +13909,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="38"/>
       <c r="B451" s="20" t="s">
         <v>358</v>
@@ -13928,7 +13929,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="38">
         <v>41548</v>
       </c>
@@ -13952,7 +13953,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="38">
         <v>41579</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -13996,7 +13997,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="38">
         <v>41609</v>
       </c>
@@ -14020,7 +14021,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="45" t="s">
         <v>87</v>
       </c>
@@ -14042,7 +14043,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="38">
         <v>41640</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14088,7 +14089,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="38"/>
       <c r="B459" s="20" t="s">
         <v>368</v>
@@ -14108,7 +14109,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="38">
         <v>41671</v>
       </c>
@@ -14134,7 +14135,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="38"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14156,7 +14157,7 @@
         <v>41696</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>190</v>
@@ -14176,7 +14177,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="38">
         <v>41699</v>
       </c>
@@ -14200,7 +14201,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="38">
         <v>41730</v>
       </c>
@@ -14224,7 +14225,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>41760</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="38"/>
       <c r="B466" s="20" t="s">
         <v>53</v>
@@ -14272,7 +14273,7 @@
         <v>41775</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>372</v>
@@ -14292,7 +14293,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="38">
         <v>41791</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>53</v>
@@ -14338,7 +14339,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>65</v>
@@ -14358,7 +14359,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="38"/>
       <c r="B471" s="20" t="s">
         <v>373</v>
@@ -14378,7 +14379,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="38">
         <v>41821</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="38"/>
       <c r="B473" s="20" t="s">
         <v>53</v>
@@ -14426,7 +14427,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="38"/>
       <c r="B474" s="20" t="s">
         <v>52</v>
@@ -14446,7 +14447,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="38"/>
       <c r="B475" s="20" t="s">
         <v>374</v>
@@ -14466,7 +14467,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="38">
         <v>41852</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="38"/>
       <c r="B477" s="20" t="s">
         <v>375</v>
@@ -14512,7 +14513,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="38">
         <v>41883</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>53</v>
@@ -14560,7 +14561,7 @@
         <v>41905</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="38"/>
       <c r="B480" s="20" t="s">
         <v>115</v>
@@ -14580,7 +14581,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="38">
         <v>41913</v>
       </c>
@@ -14606,7 +14607,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="38"/>
       <c r="B482" s="20" t="s">
         <v>380</v>
@@ -14626,7 +14627,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="38">
         <v>41944</v>
       </c>
@@ -14650,7 +14651,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="38">
         <v>41974</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="38"/>
       <c r="B485" s="20" t="s">
         <v>382</v>
@@ -14696,7 +14697,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="45" t="s">
         <v>88</v>
       </c>
@@ -14718,7 +14719,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="38">
         <v>42005</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="38"/>
       <c r="B488" s="20" t="s">
         <v>53</v>
@@ -14764,7 +14765,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="38"/>
       <c r="B489" s="20" t="s">
         <v>65</v>
@@ -14786,7 +14787,7 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="38"/>
       <c r="B490" s="20" t="s">
         <v>384</v>
@@ -14806,7 +14807,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="38">
         <v>42036</v>
       </c>
@@ -14830,7 +14831,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="38">
         <v>42064</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="38"/>
       <c r="B493" s="20" t="s">
         <v>53</v>
@@ -14876,7 +14877,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="38"/>
       <c r="B494" s="20" t="s">
         <v>279</v>
@@ -14896,7 +14897,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="38">
         <v>42095</v>
       </c>
@@ -14922,7 +14923,7 @@
         <v>42115</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>189</v>
@@ -14942,7 +14943,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="38">
         <v>42125</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="38"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -14988,7 +14989,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="38"/>
       <c r="B499" s="20" t="s">
         <v>389</v>
@@ -15008,7 +15009,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="38">
         <v>42156</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="38"/>
       <c r="B501" s="20" t="s">
         <v>390</v>
@@ -15054,7 +15055,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="38">
         <v>42186</v>
       </c>
@@ -15080,7 +15081,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>391</v>
@@ -15100,7 +15101,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>42217</v>
       </c>
@@ -15124,7 +15125,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="38">
         <v>42248</v>
       </c>
@@ -15148,7 +15149,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="38">
         <v>42278</v>
       </c>
@@ -15174,7 +15175,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="38"/>
       <c r="B507" s="20" t="s">
         <v>394</v>
@@ -15194,7 +15195,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>42309</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>42320</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="38"/>
       <c r="B509" s="20" t="s">
         <v>53</v>
@@ -15242,7 +15243,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="38"/>
       <c r="B510" s="20" t="s">
         <v>395</v>
@@ -15262,7 +15263,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>42339</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="38"/>
       <c r="B512" s="20" t="s">
         <v>67</v>
@@ -15308,7 +15309,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>326</v>
@@ -15325,7 +15326,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="45" t="s">
         <v>89</v>
       </c>
@@ -15347,7 +15348,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="38">
         <v>42370</v>
       </c>
@@ -15371,7 +15372,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="38">
         <v>42401</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>399</v>
@@ -15412,7 +15413,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="38">
         <v>42430</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>400</v>
@@ -15458,7 +15459,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="38">
         <v>42461</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="38"/>
       <c r="B521" s="20" t="s">
         <v>52</v>
@@ -15504,7 +15505,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>401</v>
@@ -15524,7 +15525,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="38">
         <v>42491</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="38"/>
       <c r="B524" s="20" t="s">
         <v>390</v>
@@ -15570,7 +15571,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="38">
         <v>42522</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="38"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15618,7 +15619,7 @@
         <v>42558</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>402</v>
@@ -15638,7 +15639,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="38">
         <v>42552</v>
       </c>
@@ -15662,7 +15663,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="38">
         <v>42583</v>
       </c>
@@ -15686,7 +15687,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="38">
         <v>42614</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="38"/>
       <c r="B531" s="20" t="s">
         <v>191</v>
@@ -15732,7 +15733,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="38">
         <v>42644</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="38"/>
       <c r="B533" s="20" t="s">
         <v>404</v>
@@ -15778,7 +15779,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="38">
         <v>42675</v>
       </c>
@@ -15802,7 +15803,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="38">
         <v>42705</v>
       </c>
@@ -15828,7 +15829,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="45" t="s">
         <v>90</v>
       </c>
@@ -15850,7 +15851,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="38">
         <v>42736</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="38"/>
       <c r="B538" s="20" t="s">
         <v>61</v>
@@ -15896,7 +15897,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="38">
         <v>42767</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="38">
         <v>42795</v>
       </c>
@@ -15948,7 +15949,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="38"/>
       <c r="B541" s="20" t="s">
         <v>53</v>
@@ -15970,7 +15971,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="38">
         <v>42826</v>
       </c>
@@ -15990,7 +15991,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="38">
         <v>42856</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="38"/>
       <c r="B544" s="20" t="s">
         <v>53</v>
@@ -16038,7 +16039,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>52</v>
@@ -16058,7 +16059,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="38">
         <v>42887</v>
       </c>
@@ -16078,7 +16079,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="38">
         <v>42917</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="38">
         <v>42948</v>
       </c>
@@ -16124,7 +16125,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="38">
         <v>42979</v>
       </c>
@@ -16144,7 +16145,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="38">
         <v>43009</v>
       </c>
@@ -16164,7 +16165,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="38">
         <v>43040</v>
       </c>
@@ -16190,7 +16191,7 @@
         <v>43047</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>53</v>
@@ -16212,7 +16213,7 @@
         <v>43068</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="38"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16234,7 +16235,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="38">
         <v>43070</v>
       </c>
@@ -16260,7 +16261,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>53</v>
@@ -16282,7 +16283,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="45" t="s">
         <v>91</v>
       </c>
@@ -16304,7 +16305,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="38">
         <v>43101</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>60</v>
@@ -16347,7 +16348,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="38">
         <v>43132</v>
       </c>
@@ -16367,7 +16368,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="38">
         <v>43160</v>
       </c>
@@ -16393,7 +16394,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="38">
         <v>43191</v>
       </c>
@@ -16419,7 +16420,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="38">
         <v>43221</v>
       </c>
@@ -16445,7 +16446,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="38"/>
       <c r="B563" s="20" t="s">
         <v>60</v>
@@ -16464,7 +16465,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>53</v>
@@ -16483,7 +16484,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="38">
         <v>43252</v>
       </c>
@@ -16503,7 +16504,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="38">
         <v>43282</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="38"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16546,7 +16547,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="38">
         <v>43313</v>
       </c>
@@ -16572,7 +16573,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="38">
         <v>43344</v>
       </c>
@@ -16592,7 +16593,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="38">
         <v>43374</v>
       </c>
@@ -16612,7 +16613,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="38">
         <v>43405</v>
       </c>
@@ -16634,7 +16635,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="38">
         <v>43435</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="38"/>
       <c r="B573" s="20" t="s">
         <v>65</v>
@@ -16679,7 +16680,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="45" t="s">
         <v>92</v>
       </c>
@@ -16701,7 +16702,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="38">
         <v>43466</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="38"/>
       <c r="B576" s="20" t="s">
         <v>53</v>
@@ -16747,7 +16748,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="38">
         <v>43497</v>
       </c>
@@ -16767,7 +16768,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="38">
         <v>43525</v>
       </c>
@@ -16791,7 +16792,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="38">
         <v>43556</v>
       </c>
@@ -16817,7 +16818,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="38">
         <v>43586</v>
       </c>
@@ -16843,7 +16844,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>53</v>
@@ -16865,7 +16866,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="38"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -16887,7 +16888,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="38">
         <v>43617</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="38"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16927,7 +16928,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="38">
         <v>43647</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>53</v>
@@ -16975,7 +16976,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="38">
         <v>43678</v>
       </c>
@@ -16995,7 +16996,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="38">
         <v>43709</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="38">
         <v>43739</v>
       </c>
@@ -17041,7 +17042,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="38">
         <v>43770</v>
       </c>
@@ -17061,7 +17062,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="38">
         <v>43800</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="38"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17106,7 +17107,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>67</v>
@@ -17123,7 +17124,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="45" t="s">
         <v>46</v>
       </c>
@@ -17141,7 +17142,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="38">
         <v>43831</v>
       </c>
@@ -17161,7 +17162,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="38">
         <v>43862</v>
       </c>
@@ -17185,7 +17186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>51</v>
@@ -17205,7 +17206,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="38">
         <v>43891</v>
       </c>
@@ -17229,7 +17230,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="38">
         <v>43922</v>
       </c>
@@ -17249,7 +17250,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="38">
         <v>43952</v>
       </c>
@@ -17269,7 +17270,7 @@
       <c r="J600" s="12"/>
       <c r="K600" s="15"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="38">
         <v>43983</v>
       </c>
@@ -17289,7 +17290,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="38">
         <v>44013</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="38">
         <v>44044</v>
       </c>
@@ -17335,7 +17336,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="38">
         <v>44075</v>
       </c>
@@ -17355,7 +17356,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="38">
         <v>44105</v>
       </c>
@@ -17379,7 +17380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="38">
         <v>44136</v>
       </c>
@@ -17399,7 +17400,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="38">
         <v>44166</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="38"/>
       <c r="B608" s="20" t="s">
         <v>56</v>
@@ -17445,7 +17446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="38"/>
       <c r="B609" s="20" t="s">
         <v>57</v>
@@ -17465,7 +17466,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="46"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="45" t="s">
         <v>47</v>
       </c>
@@ -17483,7 +17484,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="38">
         <v>44197</v>
       </c>
@@ -17507,7 +17508,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="38">
         <v>44228</v>
       </c>
@@ -17527,7 +17528,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="38">
         <v>44256</v>
       </c>
@@ -17551,7 +17552,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="38">
         <v>44287</v>
       </c>
@@ -17571,7 +17572,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="38">
         <v>44317</v>
       </c>
@@ -17591,7 +17592,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="38">
         <v>44348</v>
       </c>
@@ -17611,7 +17612,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="38">
         <v>44378</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="38">
         <v>44409</v>
       </c>
@@ -17663,7 +17664,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="38">
         <v>44440</v>
       </c>
@@ -17683,7 +17684,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="38">
         <v>44470</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="38">
         <v>44501</v>
       </c>
@@ -17733,7 +17734,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="38"/>
       <c r="B622" s="20" t="s">
         <v>61</v>
@@ -17755,7 +17756,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="38">
         <v>44531</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="45" t="s">
         <v>48</v>
       </c>
@@ -17799,7 +17800,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="38">
         <v>44562</v>
       </c>
@@ -17819,7 +17820,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="38">
         <v>44593</v>
       </c>
@@ -17839,7 +17840,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="38">
         <v>44621</v>
       </c>
@@ -17863,7 +17864,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -17883,7 +17884,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="38"/>
       <c r="B629" s="20" t="s">
         <v>438</v>
@@ -17903,7 +17904,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="46"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="38">
         <v>44652</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="38"/>
       <c r="B631" s="20" t="s">
         <v>355</v>
@@ -17949,7 +17950,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="46"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="38">
         <v>44682</v>
       </c>
@@ -17975,7 +17976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="38"/>
       <c r="B633" s="20" t="s">
         <v>437</v>
@@ -17995,7 +17996,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="38">
         <v>44713</v>
       </c>
@@ -18021,7 +18022,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="38"/>
       <c r="B635" s="20" t="s">
         <v>436</v>
@@ -18041,7 +18042,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="38">
         <v>44743</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="38"/>
       <c r="B637" s="20" t="s">
         <v>433</v>
@@ -18087,7 +18088,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="46"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="38">
         <v>44774</v>
       </c>
@@ -18111,7 +18112,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="38">
         <v>44805</v>
       </c>
@@ -18137,7 +18138,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="38"/>
       <c r="B640" s="20" t="s">
         <v>176</v>
@@ -18157,7 +18158,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="46"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="38">
         <v>44835</v>
       </c>
@@ -18183,7 +18184,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="38"/>
       <c r="B642" s="20" t="s">
         <v>144</v>
@@ -18203,7 +18204,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="46"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="38">
         <v>44866</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="38"/>
       <c r="B644" s="20" t="s">
         <v>60</v>
@@ -18251,7 +18252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="38"/>
       <c r="B645" s="20" t="s">
         <v>431</v>
@@ -18271,7 +18272,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="38">
         <v>44896</v>
       </c>
@@ -18295,7 +18296,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="38"/>
       <c r="B647" s="20" t="s">
         <v>67</v>
@@ -18317,7 +18318,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="38"/>
       <c r="B648" s="20" t="s">
         <v>430</v>
@@ -18337,7 +18338,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="45" t="s">
         <v>426</v>
       </c>
@@ -18355,7 +18356,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="38">
         <v>44927</v>
       </c>
@@ -18379,7 +18380,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="38">
         <v>44958</v>
       </c>
@@ -18403,7 +18404,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="38">
         <v>44986</v>
       </c>
@@ -18429,7 +18430,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="38"/>
       <c r="B653" s="20" t="s">
         <v>358</v>
@@ -18449,7 +18450,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="46"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="38">
         <v>45017</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="38"/>
       <c r="B655" s="20" t="s">
         <v>122</v>
@@ -18495,7 +18496,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="46"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="38">
         <v>45047</v>
       </c>
@@ -18521,7 +18522,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="38"/>
       <c r="B657" s="20" t="s">
         <v>52</v>
@@ -18541,7 +18542,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="38"/>
       <c r="B658" s="20" t="s">
         <v>291</v>
@@ -18561,7 +18562,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="46"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="38">
         <v>45078</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="38"/>
       <c r="B660" s="20" t="s">
         <v>445</v>
@@ -18607,7 +18608,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="46"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="38">
         <v>45108</v>
       </c>
@@ -18633,7 +18634,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="38"/>
       <c r="B662" s="20" t="s">
         <v>110</v>
@@ -18653,7 +18654,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="46"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="38">
         <v>45139</v>
       </c>
@@ -18677,7 +18678,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="38">
         <v>45170</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="38"/>
       <c r="B665" s="20" t="s">
         <v>444</v>
@@ -18723,7 +18724,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="38">
         <v>45200</v>
       </c>
@@ -18749,7 +18750,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="38"/>
       <c r="B667" s="20" t="s">
         <v>437</v>
@@ -18769,7 +18770,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="46"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="38">
         <v>45231</v>
       </c>
@@ -18793,7 +18794,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="38">
         <v>45261</v>
       </c>
@@ -18815,7 +18816,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="38"/>
       <c r="B670" s="20" t="s">
         <v>433</v>
@@ -18835,7 +18836,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="45" t="s">
         <v>440</v>
       </c>
@@ -18853,20 +18854,22 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="38">
         <v>45292</v>
       </c>
       <c r="B672" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C672" s="13"/>
+      <c r="C672" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D672" s="37"/>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G672" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H672" s="37">
         <v>2</v>
@@ -18877,7 +18880,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="38"/>
       <c r="B673" s="20" t="s">
         <v>52</v>
@@ -18897,11 +18900,13 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="38">
         <v>45323</v>
       </c>
-      <c r="B674" s="20"/>
+      <c r="B674" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C674" s="13"/>
       <c r="D674" s="37"/>
       <c r="E674" s="9"/>
@@ -18913,9 +18918,11 @@
       <c r="H674" s="37"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
-      <c r="K674" s="20"/>
-    </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K674" s="46">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="38">
         <v>45352</v>
       </c>
@@ -18933,7 +18940,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="38">
         <v>45383</v>
       </c>
@@ -18951,7 +18958,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18967,7 +18974,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18983,7 +18990,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="38"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18999,7 +19006,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="38"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19015,7 +19022,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="38"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19031,7 +19038,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="38"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19047,7 +19054,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="38"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19063,7 +19070,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="38"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19079,7 +19086,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="38"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19095,7 +19102,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="38"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19111,7 +19118,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="38"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19127,7 +19134,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="38"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19143,7 +19150,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="38"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19159,7 +19166,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="38"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19175,7 +19182,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="38"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19191,7 +19198,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="38"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19207,7 +19214,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="38"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19223,7 +19230,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="38"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19239,7 +19246,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="38"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19255,7 +19262,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="38"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19271,7 +19278,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="38"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19287,7 +19294,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="38"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19303,7 +19310,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="38"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19319,7 +19326,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="38"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19335,7 +19342,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="38"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19351,7 +19358,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="38"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19367,7 +19374,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="38"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19383,7 +19390,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="38"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19399,7 +19406,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="38"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19415,7 +19422,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="38"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19431,7 +19438,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="38"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19447,7 +19454,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="38"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19463,7 +19470,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="38"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19479,7 +19486,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="38"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19495,7 +19502,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="38"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19511,7 +19518,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="38"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19527,7 +19534,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="38"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19543,7 +19550,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="38"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19559,7 +19566,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="38"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19575,7 +19582,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="38"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19591,7 +19598,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="38"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19607,7 +19614,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="38"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19623,7 +19630,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="38"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19639,7 +19646,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="38"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19655,7 +19662,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="38"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19671,7 +19678,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="38"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19687,7 +19694,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="38"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19703,7 +19710,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="38"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19719,7 +19726,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="38"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19735,7 +19742,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="38"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19751,7 +19758,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="38"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19767,7 +19774,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="38"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19783,7 +19790,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="38"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19799,7 +19806,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="38"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19815,7 +19822,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="38"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19831,7 +19838,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="38"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19847,7 +19854,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="38"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19863,7 +19870,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="38"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19879,7 +19886,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="38"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19895,7 +19902,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="38"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19911,7 +19918,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="38"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19927,7 +19934,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="45" t="s">
         <v>47</v>
       </c>
@@ -19945,7 +19952,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="45" t="s">
         <v>47</v>
       </c>
@@ -19978,10 +19985,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20004,28 +20011,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -20038,7 +20045,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -20067,7 +20074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>7.625</v>
       </c>
@@ -20093,17 +20100,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -20124,7 +20131,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -20151,7 +20158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -20177,7 +20184,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -20203,7 +20210,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -20229,7 +20236,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -20255,7 +20262,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -20281,7 +20288,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -20307,7 +20314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -20333,7 +20340,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -20353,7 +20360,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -20373,7 +20380,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -20393,7 +20400,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -20414,7 +20421,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -20435,7 +20442,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -20456,7 +20463,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -20477,7 +20484,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -20498,7 +20505,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -20519,7 +20526,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -20540,7 +20547,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -20561,7 +20568,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -20582,7 +20589,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -20603,7 +20610,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -20624,7 +20631,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -20645,7 +20652,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -20666,7 +20673,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -20687,7 +20694,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -20708,7 +20715,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -20729,7 +20736,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20750,7 +20757,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20771,7 +20778,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20792,7 +20799,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20813,7 +20820,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20822,7 +20829,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20831,7 +20838,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20840,7 +20847,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20849,7 +20856,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20858,7 +20865,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20867,7 +20874,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20876,7 +20883,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20885,7 +20892,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20894,7 +20901,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20903,7 +20910,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20912,7 +20919,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20921,7 +20928,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20930,7 +20937,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20939,7 +20946,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20948,7 +20955,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20957,7 +20964,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20966,7 +20973,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20975,7 +20982,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20984,7 +20991,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20993,7 +21000,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -21002,7 +21009,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -21011,7 +21018,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -21020,7 +21027,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -21029,7 +21036,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -21038,7 +21045,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -21047,7 +21054,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -21056,7 +21063,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -21065,7 +21072,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -21074,7 +21081,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
